--- a/simulations/inputs/Scenarios_24-09-13.xlsx
+++ b/simulations/inputs/Scenarios_24-09-13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tigerault\package\Wheat-BRIDGES\simulations\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675D861A-3E12-44E4-8B3F-C3322C324949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06537C21-C569-4066-AA00-95556F43FDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Comparison_with_parameters.py" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="553">
   <si>
     <t>input_file</t>
   </si>
@@ -1685,6 +1684,15 @@
   </si>
   <si>
     <t>WB5</t>
+  </si>
+  <si>
+    <t>WB6</t>
+  </si>
+  <si>
+    <t>WB7</t>
+  </si>
+  <si>
+    <t>WB8</t>
   </si>
 </sst>
 </file>
@@ -2726,11 +2734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W222"/>
+  <dimension ref="A1:Z222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M230" sqref="M230"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2743,10 +2751,10 @@
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="37" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" style="37" customWidth="1"/>
-    <col min="9" max="15" width="21.5703125" style="1" customWidth="1"/>
+    <col min="9" max="18" width="21.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>471</v>
       </c>
@@ -2792,8 +2800,17 @@
       <c r="O1" s="36" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="36" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>481</v>
       </c>
@@ -2840,8 +2857,17 @@
       <c r="O2" s="44" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="44" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q2" s="44" t="s">
+        <v>478</v>
+      </c>
+      <c r="R2" s="44" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>479</v>
       </c>
@@ -2887,8 +2913,17 @@
       <c r="O3" s="44" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="44" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q3" s="44" t="s">
+        <v>476</v>
+      </c>
+      <c r="R3" s="44" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2935,8 +2970,17 @@
       <c r="O4" s="44" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3027,17 @@
       <c r="O5" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>1</v>
+      </c>
+      <c r="R5" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3031,8 +3084,17 @@
       <c r="O6" s="44">
         <v>180</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="44">
+        <v>180</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>180</v>
+      </c>
+      <c r="R6" s="44">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3079,8 +3141,17 @@
       <c r="O7" s="44">
         <v>4.1666666999999998E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="44">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="R7" s="44">
+        <v>4.1666666999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3198,17 @@
       <c r="O8" s="44">
         <v>4.1666666999999998E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="44">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="R8" s="44">
+        <v>4.1666666999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -3175,8 +3255,17 @@
       <c r="O9" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="44">
+        <v>1</v>
+      </c>
+      <c r="R9" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>450</v>
       </c>
@@ -3223,8 +3312,17 @@
       <c r="O10" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="44">
+        <v>0</v>
+      </c>
+      <c r="R10" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -3271,8 +3369,17 @@
       <c r="O11" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R11" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -3319,8 +3426,17 @@
       <c r="O12" s="44">
         <v>5.0000000000000001E-9</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="44">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="Q12" s="44">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="R12" s="44">
+        <v>5.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
@@ -3367,8 +3483,17 @@
       <c r="O13" s="44">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="44">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="44">
+        <v>10</v>
+      </c>
+      <c r="R13" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>463</v>
       </c>
@@ -3415,8 +3540,17 @@
       <c r="O14" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R14" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>464</v>
       </c>
@@ -3463,8 +3597,17 @@
       <c r="O15" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>467</v>
       </c>
@@ -3511,8 +3654,17 @@
       <c r="O16" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R16" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>469</v>
       </c>
@@ -3559,8 +3711,17 @@
       <c r="O17" s="44">
         <v>86400</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="44">
+        <v>86400</v>
+      </c>
+      <c r="Q17" s="44">
+        <v>86400</v>
+      </c>
+      <c r="R17" s="44">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
@@ -3606,8 +3767,17 @@
       <c r="O18" s="44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" s="44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>11</v>
       </c>
@@ -3654,8 +3824,17 @@
       <c r="O19" s="44">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="44">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="44">
+        <v>3</v>
+      </c>
+      <c r="R19" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>362</v>
       </c>
@@ -3702,8 +3881,17 @@
       <c r="O20" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R20" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>364</v>
       </c>
@@ -3750,8 +3938,17 @@
       <c r="O21" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q21" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R21" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>376</v>
       </c>
@@ -3798,8 +3995,17 @@
       <c r="O22" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R22" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>375</v>
       </c>
@@ -3846,8 +4052,17 @@
       <c r="O23" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q23" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R23" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>374</v>
       </c>
@@ -3894,8 +4109,17 @@
       <c r="O24" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q24" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R24" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>12</v>
       </c>
@@ -3942,8 +4166,17 @@
       <c r="O25" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q25" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R25" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
@@ -3990,8 +4223,17 @@
       <c r="O26" s="44">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="44">
+        <v>0.33</v>
+      </c>
+      <c r="Q26" s="44">
+        <v>0.33</v>
+      </c>
+      <c r="R26" s="44">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>14</v>
       </c>
@@ -4038,8 +4280,17 @@
       <c r="O27" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q27" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R27" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>9</v>
       </c>
@@ -4086,8 +4337,17 @@
       <c r="O28" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q28" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R28" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>456</v>
       </c>
@@ -4134,8 +4394,17 @@
       <c r="O29" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q29" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R29" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>21</v>
       </c>
@@ -4182,8 +4451,17 @@
       <c r="O30" s="44" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q30" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="R30" s="44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>22</v>
       </c>
@@ -4230,8 +4508,17 @@
       <c r="O31" s="45" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="45" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q31" s="45" t="s">
+        <v>436</v>
+      </c>
+      <c r="R31" s="45" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>23</v>
       </c>
@@ -4278,8 +4565,17 @@
       <c r="O32" s="44">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="44">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="Q32" s="44">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="R32" s="44">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>24</v>
       </c>
@@ -4326,8 +4622,17 @@
       <c r="O33" s="44">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" s="44">
+        <v>1E-3</v>
+      </c>
+      <c r="Q33" s="44">
+        <v>1E-3</v>
+      </c>
+      <c r="R33" s="44">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>25</v>
       </c>
@@ -4374,8 +4679,17 @@
       <c r="O34" s="44" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q34" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="R34" s="44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>26</v>
       </c>
@@ -4422,8 +4736,17 @@
       <c r="O35" s="44" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q35" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="R35" s="44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>27</v>
       </c>
@@ -4470,8 +4793,17 @@
       <c r="O36" s="44" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q36" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="R36" s="44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>28</v>
       </c>
@@ -4518,8 +4850,17 @@
       <c r="O37" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q37" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R37" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>29</v>
       </c>
@@ -4566,8 +4907,17 @@
       <c r="O38" s="44">
         <v>120</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38" s="44">
+        <v>120</v>
+      </c>
+      <c r="Q38" s="44">
+        <v>120</v>
+      </c>
+      <c r="R38" s="44">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>30</v>
       </c>
@@ -4614,8 +4964,17 @@
       <c r="O39" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="44">
+        <v>0</v>
+      </c>
+      <c r="R39" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>31</v>
       </c>
@@ -4662,8 +5021,17 @@
       <c r="O40" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="44">
+        <v>0</v>
+      </c>
+      <c r="R40" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>32</v>
       </c>
@@ -4710,8 +5078,17 @@
       <c r="O41" s="44">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41" s="44">
+        <v>-0.1</v>
+      </c>
+      <c r="Q41" s="44">
+        <v>-0.1</v>
+      </c>
+      <c r="R41" s="44">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>33</v>
       </c>
@@ -4758,8 +5135,17 @@
       <c r="O42" s="44">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42" s="44">
+        <v>-0.2</v>
+      </c>
+      <c r="Q42" s="44">
+        <v>-0.2</v>
+      </c>
+      <c r="R42" s="44">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>34</v>
       </c>
@@ -4806,8 +5192,17 @@
       <c r="O43" s="44">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="Q43" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="R43" s="44">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>35</v>
       </c>
@@ -4854,8 +5249,17 @@
       <c r="O44" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="44">
+        <v>0</v>
+      </c>
+      <c r="R44" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>437</v>
       </c>
@@ -4902,8 +5306,17 @@
       <c r="O45" s="44">
         <v>1200</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45" s="44">
+        <v>1200</v>
+      </c>
+      <c r="Q45" s="44">
+        <v>1200</v>
+      </c>
+      <c r="R45" s="44">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>438</v>
       </c>
@@ -4950,8 +5363,17 @@
       <c r="O46" s="44">
         <v>1200</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46" s="44">
+        <v>1200</v>
+      </c>
+      <c r="Q46" s="44">
+        <v>1200</v>
+      </c>
+      <c r="R46" s="44">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>459</v>
       </c>
@@ -4998,8 +5420,17 @@
       <c r="O47" s="44" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q47" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="R47" s="44" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>15</v>
       </c>
@@ -5046,8 +5477,17 @@
       <c r="O48" s="44" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q48" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="R48" s="44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>16</v>
       </c>
@@ -5094,8 +5534,17 @@
       <c r="O49" s="44" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q49" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="R49" s="44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>17</v>
       </c>
@@ -5142,8 +5591,17 @@
       <c r="O50" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="44">
+        <v>0</v>
+      </c>
+      <c r="R50" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>18</v>
       </c>
@@ -5190,8 +5648,17 @@
       <c r="O51" s="44">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="Q51" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R51" s="44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>19</v>
       </c>
@@ -5238,8 +5705,17 @@
       <c r="O52" s="44">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="Q52" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="R52" s="44">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>36</v>
       </c>
@@ -5286,8 +5762,17 @@
       <c r="O53" s="44">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53" s="44">
+        <v>1E-3</v>
+      </c>
+      <c r="Q53" s="44">
+        <v>1E-3</v>
+      </c>
+      <c r="R53" s="44">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>379</v>
       </c>
@@ -5334,8 +5819,17 @@
       <c r="O54" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="44">
+        <v>0</v>
+      </c>
+      <c r="R54" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>37</v>
       </c>
@@ -5382,8 +5876,17 @@
       <c r="O55" s="44">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="Q55" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="R55" s="44">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>38</v>
       </c>
@@ -5430,8 +5933,17 @@
       <c r="O56" s="44">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="Q56" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="R56" s="44">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>39</v>
       </c>
@@ -5478,8 +5990,17 @@
       <c r="O57" s="44">
         <v>6.9999999999999999E-4</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57" s="44">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="Q57" s="44">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="R57" s="44">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>40</v>
       </c>
@@ -5526,8 +6047,17 @@
       <c r="O58" s="44">
         <v>1.22E-4</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58" s="44">
+        <v>1.22E-4</v>
+      </c>
+      <c r="Q58" s="44">
+        <v>1.22E-4</v>
+      </c>
+      <c r="R58" s="44">
+        <v>1.22E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>206</v>
       </c>
@@ -5574,8 +6104,17 @@
       <c r="O59" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="44">
+        <v>1</v>
+      </c>
+      <c r="R59" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>41</v>
       </c>
@@ -5622,8 +6161,17 @@
       <c r="O60" s="44">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60" s="44">
+        <v>0.95</v>
+      </c>
+      <c r="Q60" s="44">
+        <v>0.95</v>
+      </c>
+      <c r="R60" s="44">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>406</v>
       </c>
@@ -5670,8 +6218,17 @@
       <c r="O61" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q61" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R61" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>90</v>
       </c>
@@ -5718,8 +6275,17 @@
       <c r="O62" s="44">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62" s="44">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="44">
+        <v>5</v>
+      </c>
+      <c r="R62" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>408</v>
       </c>
@@ -5766,8 +6332,17 @@
       <c r="O63" s="44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q63" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R63" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>42</v>
       </c>
@@ -5814,8 +6389,17 @@
       <c r="O64" s="44">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64" s="44">
+        <v>50</v>
+      </c>
+      <c r="Q64" s="44">
+        <v>50</v>
+      </c>
+      <c r="R64" s="44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>207</v>
       </c>
@@ -5862,8 +6446,17 @@
       <c r="O65" s="44">
         <v>1453890.8941884842</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65" s="44">
+        <v>1453890.8941884842</v>
+      </c>
+      <c r="Q65" s="44">
+        <v>1453890.8941884842</v>
+      </c>
+      <c r="R65" s="44">
+        <v>1453890.8941884842</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>43</v>
       </c>
@@ -5910,8 +6503,17 @@
       <c r="O66" s="44">
         <v>1.3888888888888888E-5</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66" s="44">
+        <v>1.3888888888888888E-5</v>
+      </c>
+      <c r="Q66" s="44">
+        <v>1.3888888888888888E-5</v>
+      </c>
+      <c r="R66" s="44">
+        <v>1.3888888888888888E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>44</v>
       </c>
@@ -5958,8 +6560,17 @@
       <c r="O67" s="44">
         <v>6.5011574074074071E-4</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67" s="44">
+        <v>6.5011574074074071E-4</v>
+      </c>
+      <c r="Q67" s="44">
+        <v>6.5011574074074071E-4</v>
+      </c>
+      <c r="R67" s="44">
+        <v>6.5011574074074071E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>45</v>
       </c>
@@ -6006,8 +6617,17 @@
       <c r="O68" s="44">
         <v>4.7400000000000003E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68" s="44">
+        <v>4.7400000000000003E-3</v>
+      </c>
+      <c r="Q68" s="44">
+        <v>4.7400000000000003E-3</v>
+      </c>
+      <c r="R68" s="44">
+        <v>4.7400000000000003E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>46</v>
       </c>
@@ -6054,8 +6674,17 @@
       <c r="O69" s="44">
         <v>282528</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69" s="44">
+        <v>282528</v>
+      </c>
+      <c r="Q69" s="44">
+        <v>282528</v>
+      </c>
+      <c r="R69" s="44">
+        <v>282528</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>47</v>
       </c>
@@ -6102,8 +6731,17 @@
       <c r="O70" s="44">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70" s="44">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q70" s="44">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="R70" s="44">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>48</v>
       </c>
@@ -6150,8 +6788,17 @@
       <c r="O71" s="44">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71" s="44">
+        <v>0.16</v>
+      </c>
+      <c r="Q71" s="44">
+        <v>0.16</v>
+      </c>
+      <c r="R71" s="44">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>49</v>
       </c>
@@ -6198,8 +6845,17 @@
       <c r="O72" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="44">
+        <v>0</v>
+      </c>
+      <c r="R72" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
         <v>50</v>
       </c>
@@ -6246,8 +6902,17 @@
       <c r="O73" s="44">
         <v>745476480000</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73" s="44">
+        <v>745476480000</v>
+      </c>
+      <c r="Q73" s="44">
+        <v>745476480000</v>
+      </c>
+      <c r="R73" s="44">
+        <v>745476480000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
         <v>204</v>
       </c>
@@ -6294,8 +6959,17 @@
       <c r="O74" s="44">
         <v>100</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74" s="44">
+        <v>100</v>
+      </c>
+      <c r="Q74" s="44">
+        <v>100</v>
+      </c>
+      <c r="R74" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
         <v>414</v>
       </c>
@@ -6342,8 +7016,17 @@
       <c r="O75" s="44" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q75" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="R75" s="44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
         <v>400</v>
       </c>
@@ -6390,8 +7073,17 @@
       <c r="O76" s="44">
         <v>21600</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76" s="44">
+        <v>21600</v>
+      </c>
+      <c r="Q76" s="44">
+        <v>21600</v>
+      </c>
+      <c r="R76" s="44">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
         <v>410</v>
       </c>
@@ -6438,8 +7130,17 @@
       <c r="O77" s="44">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="Q77" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R77" s="44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
         <v>401</v>
       </c>
@@ -6486,8 +7187,17 @@
       <c r="O78" s="44">
         <v>60479.999999999993</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78" s="44">
+        <v>60479.999999999993</v>
+      </c>
+      <c r="Q78" s="44">
+        <v>60479.999999999993</v>
+      </c>
+      <c r="R78" s="44">
+        <v>60479.999999999993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
         <v>411</v>
       </c>
@@ -6534,8 +7244,17 @@
       <c r="O79" s="44">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P79" s="44">
+        <v>0.85</v>
+      </c>
+      <c r="Q79" s="44">
+        <v>0.85</v>
+      </c>
+      <c r="R79" s="44">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
         <v>402</v>
       </c>
@@ -6582,8 +7301,17 @@
       <c r="O80" s="44">
         <v>518400</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P80" s="44">
+        <v>518400</v>
+      </c>
+      <c r="Q80" s="44">
+        <v>518400</v>
+      </c>
+      <c r="R80" s="44">
+        <v>518400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="33" t="s">
         <v>412</v>
       </c>
@@ -6630,8 +7358,17 @@
       <c r="O81" s="44">
         <v>5184000</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81" s="44">
+        <v>5184000</v>
+      </c>
+      <c r="Q81" s="44">
+        <v>5184000</v>
+      </c>
+      <c r="R81" s="44">
+        <v>5184000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>51</v>
       </c>
@@ -6678,8 +7415,17 @@
       <c r="O82" s="44">
         <v>50000</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P82" s="44">
+        <v>50000</v>
+      </c>
+      <c r="Q82" s="44">
+        <v>50000</v>
+      </c>
+      <c r="R82" s="44">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>52</v>
       </c>
@@ -6726,8 +7472,17 @@
       <c r="O83" s="44">
         <v>140000</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P83" s="44">
+        <v>140000</v>
+      </c>
+      <c r="Q83" s="44">
+        <v>140000</v>
+      </c>
+      <c r="R83" s="44">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>53</v>
       </c>
@@ -6774,8 +7529,17 @@
       <c r="O84" s="44">
         <v>3.6636136999999999E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P84" s="44">
+        <v>3.6636136999999999E-2</v>
+      </c>
+      <c r="Q84" s="44">
+        <v>3.6636136999999999E-2</v>
+      </c>
+      <c r="R84" s="44">
+        <v>3.6636136999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>54</v>
       </c>
@@ -6822,8 +7586,17 @@
       <c r="O85" s="44">
         <v>4.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P85" s="44">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="Q85" s="44">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="R85" s="44">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>55</v>
       </c>
@@ -6870,8 +7643,17 @@
       <c r="O86" s="44">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P86" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="Q86" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="R86" s="44">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>213</v>
       </c>
@@ -6918,8 +7700,17 @@
       <c r="O87" s="44">
         <v>6.0000000000000002E-6</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P87" s="44">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="Q87" s="44">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="R87" s="44">
+        <v>6.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>214</v>
       </c>
@@ -6966,8 +7757,17 @@
       <c r="O88" s="44">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P88" s="44">
+        <v>1E-3</v>
+      </c>
+      <c r="Q88" s="44">
+        <v>1E-3</v>
+      </c>
+      <c r="R88" s="44">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>215</v>
       </c>
@@ -7014,8 +7814,17 @@
       <c r="O89" s="44">
         <v>374999999.99999994</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P89" s="44">
+        <v>374999999.99999994</v>
+      </c>
+      <c r="Q89" s="44">
+        <v>374999999.99999994</v>
+      </c>
+      <c r="R89" s="44">
+        <v>374999999.99999994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>216</v>
       </c>
@@ -7062,8 +7871,17 @@
       <c r="O90" s="44">
         <v>3.7037037037037038E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P90" s="44">
+        <v>3.7037037037037038E-3</v>
+      </c>
+      <c r="Q90" s="44">
+        <v>3.7037037037037038E-3</v>
+      </c>
+      <c r="R90" s="44">
+        <v>3.7037037037037038E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>217</v>
       </c>
@@ -7110,8 +7928,17 @@
       <c r="O91" s="44">
         <v>165600</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P91" s="44">
+        <v>165600</v>
+      </c>
+      <c r="Q91" s="44">
+        <v>165600</v>
+      </c>
+      <c r="R91" s="44">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>60</v>
       </c>
@@ -7158,8 +7985,17 @@
       <c r="O92" s="44">
         <v>20</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P92" s="44">
+        <v>20</v>
+      </c>
+      <c r="Q92" s="44">
+        <v>20</v>
+      </c>
+      <c r="R92" s="44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>208</v>
       </c>
@@ -7206,8 +8042,17 @@
       <c r="O93" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="44">
+        <v>1</v>
+      </c>
+      <c r="R93" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>59</v>
       </c>
@@ -7254,8 +8099,17 @@
       <c r="O94" s="44">
         <v>21</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P94" s="44">
+        <v>21</v>
+      </c>
+      <c r="Q94" s="44">
+        <v>21</v>
+      </c>
+      <c r="R94" s="44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>65</v>
       </c>
@@ -7302,8 +8156,17 @@
       <c r="O95" s="44">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95" s="44">
+        <v>0.64</v>
+      </c>
+      <c r="Q95" s="44">
+        <v>0.64</v>
+      </c>
+      <c r="R95" s="44">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
         <v>366</v>
       </c>
@@ -7350,8 +8213,17 @@
       <c r="O96" s="44">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P96" s="44">
+        <v>8</v>
+      </c>
+      <c r="Q96" s="44">
+        <v>8</v>
+      </c>
+      <c r="R96" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
         <v>367</v>
       </c>
@@ -7398,8 +8270,17 @@
       <c r="O97" s="44">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P97" s="44">
+        <v>10</v>
+      </c>
+      <c r="Q97" s="44">
+        <v>10</v>
+      </c>
+      <c r="R97" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="s">
         <v>368</v>
       </c>
@@ -7446,8 +8327,17 @@
       <c r="O98" s="44">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P98" s="44">
+        <v>8</v>
+      </c>
+      <c r="Q98" s="44">
+        <v>8</v>
+      </c>
+      <c r="R98" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
         <v>383</v>
       </c>
@@ -7494,8 +8384,17 @@
       <c r="O99" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="44">
+        <v>1</v>
+      </c>
+      <c r="R99" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
         <v>385</v>
       </c>
@@ -7542,8 +8441,17 @@
       <c r="O100" s="44">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="Q100" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R100" s="44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>531</v>
       </c>
@@ -7571,35 +8479,47 @@
         <v>1</v>
       </c>
       <c r="I101" s="44">
-        <f>10/0.1</f>
+        <f t="shared" ref="I101:R101" si="4">10/0.1</f>
         <v>100</v>
       </c>
       <c r="J101" s="44">
-        <f>10/0.1</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="K101" s="44">
-        <f>10/0.1</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="L101" s="44">
-        <f>10/0.1</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="M101" s="44">
-        <f>10/0.1</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N101" s="44">
-        <f>10/0.1</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="O101" s="44">
-        <f>10/0.1</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P101" s="44">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="Q101" s="44">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="R101" s="44">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
         <v>533</v>
       </c>
@@ -7623,39 +8543,51 @@
         <v>3</v>
       </c>
       <c r="H102" s="44">
-        <f t="shared" ref="H102" si="4">150*H99</f>
+        <f t="shared" ref="H102" si="5">150*H99</f>
         <v>150</v>
       </c>
       <c r="I102" s="44">
-        <f>150/0.1</f>
+        <f t="shared" ref="I102:R102" si="6">150/0.1</f>
         <v>1500</v>
       </c>
       <c r="J102" s="44">
-        <f>150/0.1</f>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="K102" s="44">
-        <f>150/0.1</f>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="L102" s="44">
-        <f>150/0.1</f>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="M102" s="44">
-        <f>150/0.1</f>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="N102" s="44">
-        <f>150/0.1</f>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="O102" s="44">
-        <f>150/0.1</f>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P102" s="44">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="Q102" s="44">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="R102" s="44">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>534</v>
       </c>
@@ -7675,43 +8607,55 @@
         <v>487</v>
       </c>
       <c r="G103" s="44">
-        <f t="shared" ref="G103:H103" si="5">G94</f>
+        <f t="shared" ref="G103:H103" si="7">G94</f>
         <v>21</v>
       </c>
       <c r="H103" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="I103" s="44">
-        <f>20/0.1</f>
+        <f t="shared" ref="I103:R103" si="8">20/0.1</f>
         <v>200</v>
       </c>
       <c r="J103" s="44">
-        <f>20/0.1</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="K103" s="44">
-        <f>20/0.1</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="L103" s="44">
-        <f>20/0.1</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="M103" s="44">
-        <f>20/0.1</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="N103" s="44">
-        <f>20/0.1</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="O103" s="44">
-        <f>20/0.1</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P103" s="44">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="Q103" s="44">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="R103" s="44">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
         <v>535</v>
       </c>
@@ -7735,39 +8679,51 @@
         <v>210</v>
       </c>
       <c r="H104" s="44">
-        <f t="shared" ref="H104" si="6">70*H94</f>
+        <f t="shared" ref="H104" si="9">70*H94</f>
         <v>1470</v>
       </c>
       <c r="I104" s="44">
-        <f>400/0.1</f>
+        <f t="shared" ref="I104:R104" si="10">400/0.1</f>
         <v>4000</v>
       </c>
       <c r="J104" s="44">
-        <f>400/0.1</f>
+        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
       <c r="K104" s="44">
-        <f>400/0.1</f>
+        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
       <c r="L104" s="44">
-        <f>400/0.1</f>
+        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
       <c r="M104" s="44">
-        <f>400/0.1</f>
+        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
       <c r="N104" s="44">
-        <f>400/0.1</f>
+        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
       <c r="O104" s="44">
-        <f>400/0.1</f>
+        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P104" s="44">
+        <f t="shared" si="10"/>
+        <v>4000</v>
+      </c>
+      <c r="Q104" s="44">
+        <f t="shared" si="10"/>
+        <v>4000</v>
+      </c>
+      <c r="R104" s="44">
+        <f t="shared" si="10"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
         <v>387</v>
       </c>
@@ -7794,35 +8750,47 @@
         <v>1</v>
       </c>
       <c r="I105" s="44">
-        <f>10/0.1</f>
+        <f t="shared" ref="I105:R105" si="11">10/0.1</f>
         <v>100</v>
       </c>
       <c r="J105" s="44">
-        <f>10/0.1</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="K105" s="44">
-        <f>10/0.1</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="L105" s="44">
-        <f>10/0.1</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="M105" s="44">
-        <f>10/0.1</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="N105" s="44">
-        <f>10/0.1</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="O105" s="44">
-        <f>10/0.1</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P105" s="44">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="Q105" s="44">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="R105" s="44">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
         <v>389</v>
       </c>
@@ -7849,35 +8817,47 @@
         <v>150</v>
       </c>
       <c r="I106" s="44">
-        <f>150/0.1</f>
+        <f t="shared" ref="I106:R106" si="12">150/0.1</f>
         <v>1500</v>
       </c>
       <c r="J106" s="44">
-        <f>150/0.1</f>
+        <f t="shared" si="12"/>
         <v>1500</v>
       </c>
       <c r="K106" s="44">
-        <f>150/0.1</f>
+        <f t="shared" si="12"/>
         <v>1500</v>
       </c>
       <c r="L106" s="44">
-        <f>150/0.1</f>
+        <f t="shared" si="12"/>
         <v>1500</v>
       </c>
       <c r="M106" s="44">
-        <f>150/0.1</f>
+        <f t="shared" si="12"/>
         <v>1500</v>
       </c>
       <c r="N106" s="44">
-        <f>150/0.1</f>
+        <f t="shared" si="12"/>
         <v>1500</v>
       </c>
       <c r="O106" s="44">
-        <f>150/0.1</f>
+        <f t="shared" si="12"/>
         <v>1500</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P106" s="44">
+        <f t="shared" si="12"/>
+        <v>1500</v>
+      </c>
+      <c r="Q106" s="44">
+        <f t="shared" si="12"/>
+        <v>1500</v>
+      </c>
+      <c r="R106" s="44">
+        <f t="shared" si="12"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
         <v>391</v>
       </c>
@@ -7904,35 +8884,47 @@
         <v>21</v>
       </c>
       <c r="I107" s="44">
-        <f>20/0.1</f>
+        <f t="shared" ref="I107:R107" si="13">20/0.1</f>
         <v>200</v>
       </c>
       <c r="J107" s="44">
-        <f>20/0.1</f>
+        <f t="shared" si="13"/>
         <v>200</v>
       </c>
       <c r="K107" s="44">
-        <f>20/0.1</f>
+        <f t="shared" si="13"/>
         <v>200</v>
       </c>
       <c r="L107" s="44">
-        <f>20/0.1</f>
+        <f t="shared" si="13"/>
         <v>200</v>
       </c>
       <c r="M107" s="44">
-        <f>20/0.1</f>
+        <f t="shared" si="13"/>
         <v>200</v>
       </c>
       <c r="N107" s="44">
-        <f>20/0.1</f>
+        <f t="shared" si="13"/>
         <v>200</v>
       </c>
       <c r="O107" s="44">
-        <f>20/0.1</f>
+        <f t="shared" si="13"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P107" s="44">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="Q107" s="44">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="R107" s="44">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
         <v>393</v>
       </c>
@@ -7959,35 +8951,47 @@
         <v>1470</v>
       </c>
       <c r="I108" s="44">
-        <f>400/0.1</f>
+        <f t="shared" ref="I108:R108" si="14">400/0.1</f>
         <v>4000</v>
       </c>
       <c r="J108" s="44">
-        <f>400/0.1</f>
+        <f t="shared" si="14"/>
         <v>4000</v>
       </c>
       <c r="K108" s="44">
-        <f>400/0.1</f>
+        <f t="shared" si="14"/>
         <v>4000</v>
       </c>
       <c r="L108" s="44">
-        <f>400/0.1</f>
+        <f t="shared" si="14"/>
         <v>4000</v>
       </c>
       <c r="M108" s="44">
-        <f>400/0.1</f>
+        <f t="shared" si="14"/>
         <v>4000</v>
       </c>
       <c r="N108" s="44">
-        <f>400/0.1</f>
+        <f t="shared" si="14"/>
         <v>4000</v>
       </c>
       <c r="O108" s="44">
-        <f>400/0.1</f>
+        <f t="shared" si="14"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P108" s="44">
+        <f t="shared" si="14"/>
+        <v>4000</v>
+      </c>
+      <c r="Q108" s="44">
+        <f t="shared" si="14"/>
+        <v>4000</v>
+      </c>
+      <c r="R108" s="44">
+        <f t="shared" si="14"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
         <v>421</v>
       </c>
@@ -8034,8 +9038,17 @@
       <c r="O109" s="44">
         <v>100</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P109" s="44">
+        <v>100</v>
+      </c>
+      <c r="Q109" s="44">
+        <v>100</v>
+      </c>
+      <c r="R109" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="s">
         <v>423</v>
       </c>
@@ -8082,8 +9095,17 @@
       <c r="O110" s="44">
         <v>280800</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P110" s="44">
+        <v>280800</v>
+      </c>
+      <c r="Q110" s="44">
+        <v>280800</v>
+      </c>
+      <c r="R110" s="44">
+        <v>280800</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="23" t="s">
         <v>425</v>
       </c>
@@ -8110,35 +9132,47 @@
         <v>1.2847222222222224E-5</v>
       </c>
       <c r="I111" s="44">
-        <f t="shared" ref="I111:O111" si="7">1.11 / 10</f>
+        <f t="shared" ref="I111:R111" si="15">1.11 / 10</f>
         <v>0.11100000000000002</v>
       </c>
       <c r="J111" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.11100000000000002</v>
       </c>
       <c r="K111" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.11100000000000002</v>
       </c>
       <c r="L111" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.11100000000000002</v>
       </c>
       <c r="M111" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.11100000000000002</v>
       </c>
       <c r="N111" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.11100000000000002</v>
       </c>
       <c r="O111" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.11100000000000002</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P111" s="44">
+        <f t="shared" si="15"/>
+        <v>0.11100000000000002</v>
+      </c>
+      <c r="Q111" s="44">
+        <f t="shared" si="15"/>
+        <v>0.11100000000000002</v>
+      </c>
+      <c r="R111" s="44">
+        <f t="shared" si="15"/>
+        <v>0.11100000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="23" t="s">
         <v>427</v>
       </c>
@@ -8185,8 +9219,17 @@
       <c r="O112" s="44">
         <v>100</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P112" s="44">
+        <v>100</v>
+      </c>
+      <c r="Q112" s="44">
+        <v>100</v>
+      </c>
+      <c r="R112" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
         <v>429</v>
       </c>
@@ -8233,8 +9276,17 @@
       <c r="O113" s="44">
         <v>459648</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P113" s="44">
+        <v>459648</v>
+      </c>
+      <c r="Q113" s="44">
+        <v>459648</v>
+      </c>
+      <c r="R113" s="44">
+        <v>459648</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="23" t="s">
         <v>431</v>
       </c>
@@ -8261,35 +9313,47 @@
         <v>1.2847222222222224E-5</v>
       </c>
       <c r="I114" s="44">
-        <f t="shared" ref="I114:O114" si="8">1.11/8</f>
+        <f t="shared" ref="I114:R114" si="16">1.11/8</f>
         <v>0.13875000000000001</v>
       </c>
       <c r="J114" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.13875000000000001</v>
       </c>
       <c r="K114" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.13875000000000001</v>
       </c>
       <c r="L114" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.13875000000000001</v>
       </c>
       <c r="M114" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.13875000000000001</v>
       </c>
       <c r="N114" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.13875000000000001</v>
       </c>
       <c r="O114" s="44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.13875000000000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P114" s="44">
+        <f t="shared" si="16"/>
+        <v>0.13875000000000001</v>
+      </c>
+      <c r="Q114" s="44">
+        <f t="shared" si="16"/>
+        <v>0.13875000000000001</v>
+      </c>
+      <c r="R114" s="44">
+        <f t="shared" si="16"/>
+        <v>0.13875000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
         <v>395</v>
       </c>
@@ -8336,8 +9400,17 @@
       <c r="O115" s="44">
         <v>21600</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P115" s="44">
+        <v>21600</v>
+      </c>
+      <c r="Q115" s="44">
+        <v>21600</v>
+      </c>
+      <c r="R115" s="44">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="23" t="s">
         <v>397</v>
       </c>
@@ -8384,8 +9457,17 @@
       <c r="O116" s="44">
         <v>43200</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P116" s="44">
+        <v>43200</v>
+      </c>
+      <c r="Q116" s="44">
+        <v>43200</v>
+      </c>
+      <c r="R116" s="44">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>61</v>
       </c>
@@ -8432,8 +9514,17 @@
       <c r="O117" s="44">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P117" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="Q117" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="R117" s="44">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>62</v>
       </c>
@@ -8480,8 +9571,17 @@
       <c r="O118" s="44">
         <v>2.0833333333333335E-4</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P118" s="44">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="Q118" s="44">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="R118" s="44">
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>63</v>
       </c>
@@ -8528,8 +9628,17 @@
       <c r="O119" s="44">
         <v>5.7899999999999998E-7</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P119" s="44">
+        <v>5.7899999999999998E-7</v>
+      </c>
+      <c r="Q119" s="44">
+        <v>5.7899999999999998E-7</v>
+      </c>
+      <c r="R119" s="44">
+        <v>5.7899999999999998E-7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>64</v>
       </c>
@@ -8576,8 +9685,17 @@
       <c r="O120" s="44">
         <v>2.0833333333333335E-4</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P120" s="44">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="Q120" s="44">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="R120" s="44">
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>452</v>
       </c>
@@ -8624,8 +9742,17 @@
       <c r="O121" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P121" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="44">
+        <v>0</v>
+      </c>
+      <c r="R121" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>454</v>
       </c>
@@ -8672,8 +9799,17 @@
       <c r="O122" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P122" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="44">
+        <v>0</v>
+      </c>
+      <c r="R122" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="38" t="s">
         <v>444</v>
       </c>
@@ -8703,8 +9839,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="44">
-        <f>0.0000002*3</f>
-        <v>5.9999999999999997E-7</v>
+        <v>0</v>
       </c>
       <c r="K123" s="44">
         <v>0</v>
@@ -8725,8 +9860,20 @@
         <f>0.0000002*10</f>
         <v>1.9999999999999999E-6</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P123" s="44">
+        <f>0.0000002*10</f>
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="Q123" s="44">
+        <f>0.0000002*10</f>
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="R123" s="44">
+        <f>0.0000002*10</f>
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="38" t="s">
         <v>67</v>
       </c>
@@ -8754,35 +9901,47 @@
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="I124" s="44">
-        <f>1000 * 0.000001 / 12</f>
+        <f t="shared" ref="I124:R124" si="17">1000 * 0.000001 / 12</f>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="J124" s="44">
-        <f>1000 * 0.000001 / 12</f>
+        <f t="shared" si="17"/>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="K124" s="44">
-        <f>1000 * 0.000001 / 12</f>
+        <f t="shared" si="17"/>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="L124" s="44">
-        <f>1000 * 0.000001 / 12</f>
+        <f t="shared" si="17"/>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="M124" s="44">
-        <f>1000 * 0.000001 / 12</f>
+        <f t="shared" si="17"/>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="N124" s="44">
-        <f>1000 * 0.000001 / 12</f>
+        <f t="shared" si="17"/>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="O124" s="44">
-        <f>1000 * 0.000001 / 12</f>
+        <f t="shared" si="17"/>
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P124" s="44">
+        <f t="shared" si="17"/>
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="Q124" s="44">
+        <f t="shared" si="17"/>
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="R124" s="44">
+        <f t="shared" si="17"/>
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="38" t="s">
         <v>448</v>
       </c>
@@ -8829,8 +9988,17 @@
       <c r="O125" s="44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P125" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="R125" s="44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
         <v>66</v>
       </c>
@@ -8859,8 +10027,8 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J126" s="44">
-        <f>0.0005*10</f>
-        <v>5.0000000000000001E-3</v>
+        <f>0.0005*1.25</f>
+        <v>6.2500000000000001E-4</v>
       </c>
       <c r="K126" s="44">
         <v>5.0000000000000001E-4</v>
@@ -8881,8 +10049,20 @@
         <f>0.0005*10</f>
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P126" s="44">
+        <f>0.0005*10</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q126" s="44">
+        <f>0.0005*10</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R126" s="44">
+        <f>0.0005*10</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
         <v>441</v>
       </c>
@@ -8929,8 +10109,17 @@
       <c r="O127" s="44">
         <v>4.9999999999999999E-13</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P127" s="44">
+        <v>4.9999999999999999E-13</v>
+      </c>
+      <c r="Q127" s="44">
+        <v>4.9999999999999999E-13</v>
+      </c>
+      <c r="R127" s="44">
+        <v>4.9999999999999999E-13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
         <v>228</v>
       </c>
@@ -8977,8 +10166,17 @@
       <c r="O128" s="44">
         <v>10</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P128" s="44">
+        <v>10</v>
+      </c>
+      <c r="Q128" s="44">
+        <v>10</v>
+      </c>
+      <c r="R128" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
         <v>229</v>
       </c>
@@ -9025,8 +10223,17 @@
       <c r="O129" s="44">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P129" s="44">
+        <v>-0.04</v>
+      </c>
+      <c r="Q129" s="44">
+        <v>-0.04</v>
+      </c>
+      <c r="R129" s="44">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
         <v>230</v>
       </c>
@@ -9073,8 +10280,17 @@
       <c r="O130" s="44">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P130" s="44">
+        <v>2.9</v>
+      </c>
+      <c r="Q130" s="44">
+        <v>2.9</v>
+      </c>
+      <c r="R130" s="44">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
         <v>231</v>
       </c>
@@ -9121,8 +10337,17 @@
       <c r="O131" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P131" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="44">
+        <v>1</v>
+      </c>
+      <c r="R131" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
         <v>68</v>
       </c>
@@ -9169,8 +10394,17 @@
       <c r="O132" s="44">
         <v>1.9999999999999999E-7</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P132" s="44">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="Q132" s="44">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="R132" s="44">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
         <v>543</v>
       </c>
@@ -9193,14 +10427,14 @@
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="H133" s="44">
-        <f t="shared" ref="H133" si="9">G133</f>
+        <f t="shared" ref="H133" si="18">G133</f>
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="I133" s="44">
         <v>0</v>
       </c>
       <c r="J133" s="44">
-        <v>0</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="K133" s="44">
         <v>0</v>
@@ -9212,13 +10446,26 @@
         <v>0</v>
       </c>
       <c r="N133" s="44">
-        <v>0</v>
+        <f>0.0000002*5</f>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="O133" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+        <f>0.0000002*10</f>
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P133" s="44">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="Q133" s="44">
+        <f>0.0000002*10*2</f>
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="R133" s="44">
+        <f>0.0000002*10*2</f>
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
         <v>232</v>
       </c>
@@ -9241,7 +10488,7 @@
         <v>10</v>
       </c>
       <c r="H134" s="44">
-        <f t="shared" ref="H134:H197" si="10">G134</f>
+        <f t="shared" ref="H134:H197" si="19">G134</f>
         <v>10</v>
       </c>
       <c r="I134" s="44">
@@ -9265,8 +10512,17 @@
       <c r="O134" s="44">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P134" s="44">
+        <v>10</v>
+      </c>
+      <c r="Q134" s="44">
+        <v>10</v>
+      </c>
+      <c r="R134" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
         <v>233</v>
       </c>
@@ -9289,7 +10545,7 @@
         <v>-0.04</v>
       </c>
       <c r="H135" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>-0.04</v>
       </c>
       <c r="I135" s="44">
@@ -9313,8 +10569,17 @@
       <c r="O135" s="44">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P135" s="44">
+        <v>-0.04</v>
+      </c>
+      <c r="Q135" s="44">
+        <v>-0.04</v>
+      </c>
+      <c r="R135" s="44">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
         <v>234</v>
       </c>
@@ -9337,7 +10602,7 @@
         <v>2.9</v>
       </c>
       <c r="H136" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>2.9</v>
       </c>
       <c r="I136" s="44">
@@ -9361,8 +10626,17 @@
       <c r="O136" s="44">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P136" s="44">
+        <v>2.9</v>
+      </c>
+      <c r="Q136" s="44">
+        <v>2.9</v>
+      </c>
+      <c r="R136" s="44">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
         <v>235</v>
       </c>
@@ -9385,7 +10659,7 @@
         <v>1</v>
       </c>
       <c r="H137" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I137" s="44">
@@ -9409,8 +10683,17 @@
       <c r="O137" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P137" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="44">
+        <v>1</v>
+      </c>
+      <c r="R137" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
         <v>69</v>
       </c>
@@ -9433,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="H138" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I138" s="44">
@@ -9457,8 +10740,17 @@
       <c r="O138" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P138" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="44">
+        <v>0</v>
+      </c>
+      <c r="R138" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="40" t="s">
         <v>70</v>
       </c>
@@ -9481,7 +10773,7 @@
         <v>1.6666666666666666E-4</v>
       </c>
       <c r="H139" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1.6666666666666666E-4</v>
       </c>
       <c r="I139" s="44">
@@ -9505,8 +10797,17 @@
       <c r="O139" s="44">
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P139" s="44">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="Q139" s="44">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="R139" s="44">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="23" t="s">
         <v>56</v>
       </c>
@@ -9529,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="H140" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I140" s="44">
@@ -9553,8 +10854,17 @@
       <c r="O140" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P140" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="44">
+        <v>0</v>
+      </c>
+      <c r="R140" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="23" t="s">
         <v>57</v>
       </c>
@@ -9577,7 +10887,7 @@
         <v>2E-3</v>
       </c>
       <c r="H141" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>2E-3</v>
       </c>
       <c r="I141" s="44">
@@ -9601,8 +10911,17 @@
       <c r="O141" s="44">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P141" s="44">
+        <v>2E-3</v>
+      </c>
+      <c r="Q141" s="44">
+        <v>2E-3</v>
+      </c>
+      <c r="R141" s="44">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="23" t="s">
         <v>58</v>
       </c>
@@ -9625,7 +10944,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="H142" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="I142" s="44">
@@ -9649,8 +10968,17 @@
       <c r="O142" s="44">
         <v>3.9999999999999998E-6</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P142" s="44">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="Q142" s="44">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="R142" s="44">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="23" t="s">
         <v>71</v>
       </c>
@@ -9673,7 +11001,7 @@
         <v>3.7699999999999999E-10</v>
       </c>
       <c r="H143" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>3.7699999999999999E-10</v>
       </c>
       <c r="I143" s="44">
@@ -9697,8 +11025,17 @@
       <c r="O143" s="44">
         <v>3.7699999999999999E-10</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P143" s="44">
+        <v>3.7699999999999999E-10</v>
+      </c>
+      <c r="Q143" s="44">
+        <v>3.7699999999999999E-10</v>
+      </c>
+      <c r="R143" s="44">
+        <v>3.7699999999999999E-10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
         <v>236</v>
       </c>
@@ -9721,7 +11058,7 @@
         <v>20</v>
       </c>
       <c r="H144" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="I144" s="44">
@@ -9745,8 +11082,17 @@
       <c r="O144" s="44">
         <v>20</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P144" s="44">
+        <v>20</v>
+      </c>
+      <c r="Q144" s="44">
+        <v>20</v>
+      </c>
+      <c r="R144" s="44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="23" t="s">
         <v>237</v>
       </c>
@@ -9769,7 +11115,7 @@
         <v>-0.06</v>
       </c>
       <c r="H145" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>-0.06</v>
       </c>
       <c r="I145" s="44">
@@ -9793,8 +11139,17 @@
       <c r="O145" s="44">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P145" s="44">
+        <v>-0.06</v>
+      </c>
+      <c r="Q145" s="44">
+        <v>-0.06</v>
+      </c>
+      <c r="R145" s="44">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="23" t="s">
         <v>238</v>
       </c>
@@ -9817,7 +11172,7 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="H146" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.89100000000000001</v>
       </c>
       <c r="I146" s="44">
@@ -9841,8 +11196,17 @@
       <c r="O146" s="44">
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P146" s="44">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="Q146" s="44">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="R146" s="44">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="23" t="s">
         <v>239</v>
       </c>
@@ -9865,7 +11229,7 @@
         <v>1</v>
       </c>
       <c r="H147" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I147" s="44">
@@ -9889,8 +11253,17 @@
       <c r="O147" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P147" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="44">
+        <v>1</v>
+      </c>
+      <c r="R147" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="s">
         <v>72</v>
       </c>
@@ -9913,7 +11286,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H148" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="I148" s="44">
@@ -9937,8 +11310,17 @@
       <c r="O148" s="44">
         <v>4.0000000000000003E-5</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P148" s="44">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="Q148" s="44">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="R148" s="44">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>73</v>
       </c>
@@ -9961,7 +11343,7 @@
         <v>5.8333333333333335E-9</v>
       </c>
       <c r="H149" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>5.8333333333333335E-9</v>
       </c>
       <c r="I149" s="44">
@@ -9985,8 +11367,17 @@
       <c r="O149" s="44">
         <v>5.8333333333333335E-9</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P149" s="44">
+        <v>5.8333333333333335E-9</v>
+      </c>
+      <c r="Q149" s="44">
+        <v>5.8333333333333335E-9</v>
+      </c>
+      <c r="R149" s="44">
+        <v>5.8333333333333335E-9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>240</v>
       </c>
@@ -10009,7 +11400,7 @@
         <v>20</v>
       </c>
       <c r="H150" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="I150" s="44">
@@ -10033,8 +11424,17 @@
       <c r="O150" s="44">
         <v>20</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P150" s="44">
+        <v>20</v>
+      </c>
+      <c r="Q150" s="44">
+        <v>20</v>
+      </c>
+      <c r="R150" s="44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>241</v>
       </c>
@@ -10057,7 +11457,7 @@
         <v>-0.06</v>
       </c>
       <c r="H151" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>-0.06</v>
       </c>
       <c r="I151" s="44">
@@ -10081,8 +11481,17 @@
       <c r="O151" s="44">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P151" s="44">
+        <v>-0.06</v>
+      </c>
+      <c r="Q151" s="44">
+        <v>-0.06</v>
+      </c>
+      <c r="R151" s="44">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>242</v>
       </c>
@@ -10105,7 +11514,7 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="H152" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.89100000000000001</v>
       </c>
       <c r="I152" s="44">
@@ -10129,8 +11538,17 @@
       <c r="O152" s="44">
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P152" s="44">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="Q152" s="44">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="R152" s="44">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>243</v>
       </c>
@@ -10153,7 +11571,7 @@
         <v>1</v>
       </c>
       <c r="H153" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I153" s="44">
@@ -10177,8 +11595,17 @@
       <c r="O153" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P153" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q153" s="44">
+        <v>1</v>
+      </c>
+      <c r="R153" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>74</v>
       </c>
@@ -10201,7 +11628,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="H154" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="I154" s="44">
@@ -10225,8 +11652,17 @@
       <c r="O154" s="44">
         <v>4.0000000000000003E-5</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P154" s="44">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="Q154" s="44">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="R154" s="44">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>75</v>
       </c>
@@ -10249,7 +11685,7 @@
         <v>4.9999999999999998E-8</v>
       </c>
       <c r="H155" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>4.9999999999999998E-8</v>
       </c>
       <c r="I155" s="44">
@@ -10273,8 +11709,17 @@
       <c r="O155" s="44">
         <v>4.0000000000000001E-8</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P155" s="44">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="Q155" s="44">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="R155" s="44">
+        <v>4.0000000000000001E-8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>218</v>
       </c>
@@ -10297,7 +11742,7 @@
         <v>20</v>
       </c>
       <c r="H156" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="I156" s="44">
@@ -10321,8 +11766,17 @@
       <c r="O156" s="44">
         <v>20</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P156" s="44">
+        <v>20</v>
+      </c>
+      <c r="Q156" s="44">
+        <v>20</v>
+      </c>
+      <c r="R156" s="44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>219</v>
       </c>
@@ -10345,7 +11799,7 @@
         <v>-4.4200000000000003E-2</v>
       </c>
       <c r="H157" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>-4.4200000000000003E-2</v>
       </c>
       <c r="I157" s="44">
@@ -10369,8 +11823,17 @@
       <c r="O157" s="44">
         <v>-4.4200000000000003E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P157" s="44">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+      <c r="Q157" s="44">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+      <c r="R157" s="44">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>220</v>
       </c>
@@ -10393,7 +11856,7 @@
         <v>1.55</v>
       </c>
       <c r="H158" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1.55</v>
       </c>
       <c r="I158" s="44">
@@ -10417,8 +11880,17 @@
       <c r="O158" s="44">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P158" s="44">
+        <v>1.55</v>
+      </c>
+      <c r="Q158" s="44">
+        <v>1.55</v>
+      </c>
+      <c r="R158" s="44">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>221</v>
       </c>
@@ -10441,7 +11913,7 @@
         <v>1</v>
       </c>
       <c r="H159" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I159" s="44">
@@ -10465,8 +11937,17 @@
       <c r="O159" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P159" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="44">
+        <v>1</v>
+      </c>
+      <c r="R159" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>76</v>
       </c>
@@ -10489,7 +11970,7 @@
         <v>2.7799999999999998E-4</v>
       </c>
       <c r="H160" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>2.7799999999999998E-4</v>
       </c>
       <c r="I160" s="44">
@@ -10513,8 +11994,17 @@
       <c r="O160" s="44">
         <v>2.7799999999999998E-4</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P160" s="44">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="Q160" s="44">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="R160" s="44">
+        <v>2.7799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
         <v>78</v>
       </c>
@@ -10560,8 +12050,17 @@
       <c r="O161" s="44">
         <v>2.4999999999999998E-12</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P161" s="44">
+        <v>2.4999999999999998E-12</v>
+      </c>
+      <c r="Q161" s="44">
+        <v>2.4999999999999998E-12</v>
+      </c>
+      <c r="R161" s="44">
+        <v>2.4999999999999998E-12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
         <v>245</v>
       </c>
@@ -10584,7 +12083,7 @@
         <v>20</v>
       </c>
       <c r="H162" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="I162" s="44">
@@ -10608,8 +12107,17 @@
       <c r="O162" s="44">
         <v>20</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P162" s="44">
+        <v>20</v>
+      </c>
+      <c r="Q162" s="44">
+        <v>20</v>
+      </c>
+      <c r="R162" s="44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="25" t="s">
         <v>246</v>
       </c>
@@ -10632,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="H163" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I163" s="44">
@@ -10656,8 +12164,17 @@
       <c r="O163" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P163" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="44">
+        <v>0</v>
+      </c>
+      <c r="R163" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="25" t="s">
         <v>247</v>
       </c>
@@ -10680,7 +12197,7 @@
         <v>1</v>
       </c>
       <c r="H164" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I164" s="44">
@@ -10704,8 +12221,17 @@
       <c r="O164" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P164" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q164" s="44">
+        <v>1</v>
+      </c>
+      <c r="R164" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
         <v>248</v>
       </c>
@@ -10728,7 +12254,7 @@
         <v>0</v>
       </c>
       <c r="H165" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I165" s="44">
@@ -10752,8 +12278,17 @@
       <c r="O165" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P165" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="44">
+        <v>0</v>
+      </c>
+      <c r="R165" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="25" t="s">
         <v>79</v>
       </c>
@@ -10776,7 +12311,7 @@
         <v>0.4</v>
       </c>
       <c r="H166" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0.4</v>
       </c>
       <c r="I166" s="44">
@@ -10800,8 +12335,17 @@
       <c r="O166" s="44">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P166" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="Q166" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="R166" s="44">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="31" t="s">
         <v>80</v>
       </c>
@@ -10824,7 +12368,7 @@
         <v>3.2100000000000002E-6</v>
       </c>
       <c r="H167" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>3.2100000000000002E-6</v>
       </c>
       <c r="I167" s="44">
@@ -10848,8 +12392,17 @@
       <c r="O167" s="44">
         <v>2.0000000000000001E-9</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P167" s="44">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="Q167" s="44">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="R167" s="44">
+        <v>2.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="31" t="s">
         <v>249</v>
       </c>
@@ -10872,7 +12425,7 @@
         <v>25</v>
       </c>
       <c r="H168" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="I168" s="44">
@@ -10896,8 +12449,17 @@
       <c r="O168" s="44">
         <v>25</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P168" s="44">
+        <v>25</v>
+      </c>
+      <c r="Q168" s="44">
+        <v>25</v>
+      </c>
+      <c r="R168" s="44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="31" t="s">
         <v>250</v>
       </c>
@@ -10920,7 +12482,7 @@
         <v>0</v>
       </c>
       <c r="H169" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I169" s="44">
@@ -10944,8 +12506,17 @@
       <c r="O169" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P169" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="44">
+        <v>0</v>
+      </c>
+      <c r="R169" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="31" t="s">
         <v>251</v>
       </c>
@@ -10968,7 +12539,7 @@
         <v>3.98</v>
       </c>
       <c r="H170" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>3.98</v>
       </c>
       <c r="I170" s="44">
@@ -10992,8 +12563,17 @@
       <c r="O170" s="44">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P170" s="44">
+        <v>3.98</v>
+      </c>
+      <c r="Q170" s="44">
+        <v>3.98</v>
+      </c>
+      <c r="R170" s="44">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="31" t="s">
         <v>252</v>
       </c>
@@ -11016,7 +12596,7 @@
         <v>1</v>
       </c>
       <c r="H171" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I171" s="44">
@@ -11040,8 +12620,17 @@
       <c r="O171" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P171" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q171" s="44">
+        <v>1</v>
+      </c>
+      <c r="R171" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="31" t="s">
         <v>81</v>
       </c>
@@ -11064,7 +12653,7 @@
         <v>1.6666666666666666E-4</v>
       </c>
       <c r="H172" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1.6666666666666666E-4</v>
       </c>
       <c r="I172" s="44">
@@ -11088,8 +12677,17 @@
       <c r="O172" s="44">
         <v>1.6666666666666666E-4</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P172" s="44">
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="Q172" s="44">
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="R172" s="44">
+        <v>1.6666666666666666E-4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>253</v>
       </c>
@@ -11112,7 +12710,7 @@
         <v>1E-8</v>
       </c>
       <c r="H173" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1E-8</v>
       </c>
       <c r="I173" s="44">
@@ -11136,8 +12734,17 @@
       <c r="O173" s="44">
         <v>1E-8</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P173" s="44">
+        <v>1E-8</v>
+      </c>
+      <c r="Q173" s="44">
+        <v>1E-8</v>
+      </c>
+      <c r="R173" s="44">
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>254</v>
       </c>
@@ -11160,7 +12767,7 @@
         <v>20</v>
       </c>
       <c r="H174" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="I174" s="44">
@@ -11184,8 +12791,17 @@
       <c r="O174" s="44">
         <v>20</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P174" s="44">
+        <v>20</v>
+      </c>
+      <c r="Q174" s="44">
+        <v>20</v>
+      </c>
+      <c r="R174" s="44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
         <v>255</v>
       </c>
@@ -11208,7 +12824,7 @@
         <v>0</v>
       </c>
       <c r="H175" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I175" s="44">
@@ -11232,8 +12848,17 @@
       <c r="O175" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P175" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="44">
+        <v>0</v>
+      </c>
+      <c r="R175" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
         <v>256</v>
       </c>
@@ -11256,7 +12881,7 @@
         <v>2</v>
       </c>
       <c r="H176" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="I176" s="44">
@@ -11280,8 +12905,17 @@
       <c r="O176" s="44">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P176" s="44">
+        <v>2</v>
+      </c>
+      <c r="Q176" s="44">
+        <v>2</v>
+      </c>
+      <c r="R176" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
         <v>257</v>
       </c>
@@ -11304,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="H177" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I177" s="44">
@@ -11328,8 +12962,17 @@
       <c r="O177" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P177" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q177" s="44">
+        <v>1</v>
+      </c>
+      <c r="R177" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
         <v>258</v>
       </c>
@@ -11352,7 +12995,7 @@
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="H178" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="I178" s="44">
@@ -11376,8 +13019,17 @@
       <c r="O178" s="44">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P178" s="44">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="Q178" s="44">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="R178" s="44">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
         <v>259</v>
       </c>
@@ -11400,7 +13052,7 @@
         <v>1</v>
       </c>
       <c r="H179" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I179" s="44">
@@ -11424,8 +13076,17 @@
       <c r="O179" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P179" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q179" s="44">
+        <v>1</v>
+      </c>
+      <c r="R179" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="27" t="s">
         <v>260</v>
       </c>
@@ -11448,7 +13109,7 @@
         <v>2.3533050791148895E-8</v>
       </c>
       <c r="H180" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>2.3533050791148895E-8</v>
       </c>
       <c r="I180" s="44">
@@ -11472,8 +13133,17 @@
       <c r="O180" s="44">
         <v>2.3533050791148899E-8</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P180" s="44">
+        <v>2.3533050791148899E-8</v>
+      </c>
+      <c r="Q180" s="44">
+        <v>2.3533050791148899E-8</v>
+      </c>
+      <c r="R180" s="44">
+        <v>2.3533050791148899E-8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="27" t="s">
         <v>261</v>
       </c>
@@ -11496,7 +13166,7 @@
         <v>20</v>
       </c>
       <c r="H181" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="I181" s="44">
@@ -11520,8 +13190,17 @@
       <c r="O181" s="44">
         <v>20</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P181" s="44">
+        <v>20</v>
+      </c>
+      <c r="Q181" s="44">
+        <v>20</v>
+      </c>
+      <c r="R181" s="44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="27" t="s">
         <v>262</v>
       </c>
@@ -11544,7 +13223,7 @@
         <v>-0.187</v>
       </c>
       <c r="H182" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>-0.187</v>
       </c>
       <c r="I182" s="44">
@@ -11568,8 +13247,17 @@
       <c r="O182" s="44">
         <v>-0.187</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P182" s="44">
+        <v>-0.187</v>
+      </c>
+      <c r="Q182" s="44">
+        <v>-0.187</v>
+      </c>
+      <c r="R182" s="44">
+        <v>-0.187</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="27" t="s">
         <v>263</v>
       </c>
@@ -11592,7 +13280,7 @@
         <v>2.48</v>
       </c>
       <c r="H183" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>2.48</v>
       </c>
       <c r="I183" s="44">
@@ -11616,8 +13304,17 @@
       <c r="O183" s="44">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P183" s="44">
+        <v>2.48</v>
+      </c>
+      <c r="Q183" s="44">
+        <v>2.48</v>
+      </c>
+      <c r="R183" s="44">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="27" t="s">
         <v>264</v>
       </c>
@@ -11640,7 +13337,7 @@
         <v>1</v>
       </c>
       <c r="H184" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I184" s="44">
@@ -11664,8 +13361,17 @@
       <c r="O184" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P184" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q184" s="44">
+        <v>1</v>
+      </c>
+      <c r="R184" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="27" t="s">
         <v>265</v>
       </c>
@@ -11688,7 +13394,7 @@
         <v>6.1060227588121015E-4</v>
       </c>
       <c r="H185" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>6.1060227588121015E-4</v>
       </c>
       <c r="I185" s="44">
@@ -11712,8 +13418,17 @@
       <c r="O185" s="44">
         <v>6.1060227588121015E-4</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P185" s="44">
+        <v>6.1060227588121015E-4</v>
+      </c>
+      <c r="Q185" s="44">
+        <v>6.1060227588121015E-4</v>
+      </c>
+      <c r="R185" s="44">
+        <v>6.1060227588121015E-4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="23" t="s">
         <v>266</v>
       </c>
@@ -11736,7 +13451,7 @@
         <v>6.41E-9</v>
       </c>
       <c r="H186" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>6.41E-9</v>
       </c>
       <c r="I186" s="44">
@@ -11760,8 +13475,17 @@
       <c r="O186" s="44">
         <v>3.9999999999999998E-7</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P186" s="44">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="Q186" s="44">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="R186" s="44">
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="23" t="s">
         <v>267</v>
       </c>
@@ -11784,7 +13508,7 @@
         <v>25</v>
       </c>
       <c r="H187" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="I187" s="44">
@@ -11808,8 +13532,17 @@
       <c r="O187" s="44">
         <v>25</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P187" s="44">
+        <v>25</v>
+      </c>
+      <c r="Q187" s="44">
+        <v>25</v>
+      </c>
+      <c r="R187" s="44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="23" t="s">
         <v>268</v>
       </c>
@@ -11832,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="H188" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I188" s="44">
@@ -11856,8 +13589,17 @@
       <c r="O188" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P188" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="44">
+        <v>0</v>
+      </c>
+      <c r="R188" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="23" t="s">
         <v>269</v>
       </c>
@@ -11880,7 +13622,7 @@
         <v>3.98</v>
       </c>
       <c r="H189" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>3.98</v>
       </c>
       <c r="I189" s="44">
@@ -11904,8 +13646,17 @@
       <c r="O189" s="44">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P189" s="44">
+        <v>3.98</v>
+      </c>
+      <c r="Q189" s="44">
+        <v>3.98</v>
+      </c>
+      <c r="R189" s="44">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="23" t="s">
         <v>270</v>
       </c>
@@ -11928,7 +13679,7 @@
         <v>1</v>
       </c>
       <c r="H190" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I190" s="44">
@@ -11952,8 +13703,17 @@
       <c r="O190" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P190" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q190" s="44">
+        <v>1</v>
+      </c>
+      <c r="R190" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="23" t="s">
         <v>271</v>
       </c>
@@ -11976,7 +13736,7 @@
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="H191" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="I191" s="44">
@@ -12000,8 +13760,17 @@
       <c r="O191" s="44">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P191" s="44">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="Q191" s="44">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="R191" s="44">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>272</v>
       </c>
@@ -12024,7 +13793,7 @@
         <v>6.41E-9</v>
       </c>
       <c r="H192" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>6.41E-9</v>
       </c>
       <c r="I192" s="44">
@@ -12048,8 +13817,17 @@
       <c r="O192" s="44">
         <v>3.9999999999999998E-7</v>
       </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P192" s="44">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="Q192" s="44">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="R192" s="44">
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>273</v>
       </c>
@@ -12072,7 +13850,7 @@
         <v>25</v>
       </c>
       <c r="H193" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="I193" s="44">
@@ -12096,8 +13874,17 @@
       <c r="O193" s="44">
         <v>25</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P193" s="44">
+        <v>25</v>
+      </c>
+      <c r="Q193" s="44">
+        <v>25</v>
+      </c>
+      <c r="R193" s="44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>274</v>
       </c>
@@ -12120,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="H194" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I194" s="44">
@@ -12144,8 +13931,17 @@
       <c r="O194" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P194" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q194" s="44">
+        <v>0</v>
+      </c>
+      <c r="R194" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>275</v>
       </c>
@@ -12168,7 +13964,7 @@
         <v>3.98</v>
       </c>
       <c r="H195" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>3.98</v>
       </c>
       <c r="I195" s="44">
@@ -12192,8 +13988,17 @@
       <c r="O195" s="44">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P195" s="44">
+        <v>3.98</v>
+      </c>
+      <c r="Q195" s="44">
+        <v>3.98</v>
+      </c>
+      <c r="R195" s="44">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>276</v>
       </c>
@@ -12216,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="H196" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I196" s="44">
@@ -12240,8 +14045,17 @@
       <c r="O196" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P196" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q196" s="44">
+        <v>1</v>
+      </c>
+      <c r="R196" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>277</v>
       </c>
@@ -12264,7 +14078,7 @@
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="H197" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="I197" s="44">
@@ -12288,8 +14102,17 @@
       <c r="O197" s="44">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P197" s="44">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="Q197" s="44">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="R197" s="44">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198" s="29" t="s">
         <v>278</v>
       </c>
@@ -12312,7 +14135,7 @@
         <v>3.205E-9</v>
       </c>
       <c r="H198" s="44">
-        <f t="shared" ref="H198:H204" si="11">G198</f>
+        <f t="shared" ref="H198:H204" si="20">G198</f>
         <v>3.205E-9</v>
       </c>
       <c r="I198" s="44">
@@ -12336,8 +14159,17 @@
       <c r="O198" s="44">
         <v>1.9999999999999999E-7</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P198" s="44">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="Q198" s="44">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="R198" s="44">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" s="29" t="s">
         <v>279</v>
       </c>
@@ -12360,7 +14192,7 @@
         <v>25</v>
       </c>
       <c r="H199" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="I199" s="44">
@@ -12384,8 +14216,17 @@
       <c r="O199" s="44">
         <v>25</v>
       </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P199" s="44">
+        <v>25</v>
+      </c>
+      <c r="Q199" s="44">
+        <v>25</v>
+      </c>
+      <c r="R199" s="44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" s="29" t="s">
         <v>280</v>
       </c>
@@ -12408,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="H200" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I200" s="44">
@@ -12432,8 +14273,17 @@
       <c r="O200" s="44">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P200" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q200" s="44">
+        <v>0</v>
+      </c>
+      <c r="R200" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" s="29" t="s">
         <v>281</v>
       </c>
@@ -12456,7 +14306,7 @@
         <v>3.98</v>
       </c>
       <c r="H201" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>3.98</v>
       </c>
       <c r="I201" s="44">
@@ -12480,8 +14330,17 @@
       <c r="O201" s="44">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P201" s="44">
+        <v>3.98</v>
+      </c>
+      <c r="Q201" s="44">
+        <v>3.98</v>
+      </c>
+      <c r="R201" s="44">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202" s="29" t="s">
         <v>282</v>
       </c>
@@ -12504,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="H202" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I202" s="44">
@@ -12528,8 +14387,17 @@
       <c r="O202" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P202" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q202" s="44">
+        <v>1</v>
+      </c>
+      <c r="R202" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" s="29" t="s">
         <v>283</v>
       </c>
@@ -12552,7 +14420,7 @@
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="H203" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="I203" s="44">
@@ -12576,8 +14444,17 @@
       <c r="O203" s="44">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P203" s="44">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="Q203" s="44">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="R203" s="44">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204" s="47" t="s">
         <v>361</v>
       </c>
@@ -12600,7 +14477,7 @@
         <v>89</v>
       </c>
       <c r="H204" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>WHEAT</v>
       </c>
       <c r="I204" s="44" t="s">
@@ -12624,8 +14501,17 @@
       <c r="O204" s="44" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P204" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q204" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="R204" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>488</v>
       </c>
@@ -12671,16 +14557,25 @@
       <c r="O205" s="44">
         <v>1.36</v>
       </c>
-      <c r="P205" s="1"/>
-      <c r="Q205" s="1"/>
-      <c r="R205" s="1"/>
+      <c r="P205" s="44">
+        <v>1.36</v>
+      </c>
+      <c r="Q205" s="44">
+        <v>1.36</v>
+      </c>
+      <c r="R205" s="44">
+        <v>0.1</v>
+      </c>
       <c r="S205" s="1"/>
       <c r="T205" s="1"/>
       <c r="U205" s="1"/>
       <c r="V205" s="1"/>
       <c r="W205" s="1"/>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X205" s="1"/>
+      <c r="Y205" s="1"/>
+      <c r="Z205" s="1"/>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>491</v>
       </c>
@@ -12726,16 +14621,25 @@
       <c r="O206" s="44">
         <v>-30000</v>
       </c>
-      <c r="P206" s="51"/>
-      <c r="Q206" s="51"/>
-      <c r="R206" s="51"/>
+      <c r="P206" s="44">
+        <v>-30000</v>
+      </c>
+      <c r="Q206" s="44">
+        <v>-30000</v>
+      </c>
+      <c r="R206" s="44">
+        <v>-30000</v>
+      </c>
       <c r="S206" s="51"/>
       <c r="T206" s="51"/>
       <c r="U206" s="51"/>
       <c r="V206" s="51"/>
       <c r="W206" s="51"/>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X206" s="51"/>
+      <c r="Y206" s="51"/>
+      <c r="Z206" s="51"/>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>494</v>
       </c>
@@ -12758,7 +14662,7 @@
         <v>-100000</v>
       </c>
       <c r="H207" s="44">
-        <f t="shared" ref="H207" si="12">H206</f>
+        <f t="shared" ref="H207" si="21">H206</f>
         <v>-100000</v>
       </c>
       <c r="I207" s="44">
@@ -12782,16 +14686,25 @@
       <c r="O207" s="44">
         <v>-100000</v>
       </c>
-      <c r="P207" s="51"/>
-      <c r="Q207" s="51"/>
-      <c r="R207" s="51"/>
+      <c r="P207" s="44">
+        <v>-100000</v>
+      </c>
+      <c r="Q207" s="44">
+        <v>-100000</v>
+      </c>
+      <c r="R207" s="44">
+        <v>-100000</v>
+      </c>
       <c r="S207" s="51"/>
       <c r="T207" s="51"/>
       <c r="U207" s="51"/>
       <c r="V207" s="51"/>
       <c r="W207" s="51"/>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X207" s="51"/>
+      <c r="Y207" s="51"/>
+      <c r="Z207" s="51"/>
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>496</v>
       </c>
@@ -12837,16 +14750,25 @@
       <c r="O208" s="44">
         <v>0.5</v>
       </c>
-      <c r="P208" s="52"/>
-      <c r="Q208" s="37"/>
-      <c r="R208" s="37"/>
-      <c r="S208" s="37"/>
+      <c r="P208" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="Q208" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R208" s="44">
+        <v>1</v>
+      </c>
+      <c r="S208" s="52"/>
       <c r="T208" s="37"/>
       <c r="U208" s="37"/>
       <c r="V208" s="37"/>
       <c r="W208" s="37"/>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X208" s="37"/>
+      <c r="Y208" s="37"/>
+      <c r="Z208" s="37"/>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>498</v>
       </c>
@@ -12892,16 +14814,25 @@
       <c r="O209" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="P209" s="53"/>
-      <c r="Q209" s="37"/>
-      <c r="R209" s="37"/>
-      <c r="S209" s="37"/>
+      <c r="P209" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q209" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="R209" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="S209" s="53"/>
       <c r="T209" s="37"/>
       <c r="U209" s="37"/>
       <c r="V209" s="37"/>
       <c r="W209" s="37"/>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X209" s="37"/>
+      <c r="Y209" s="37"/>
+      <c r="Z209" s="37"/>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>501</v>
       </c>
@@ -12947,16 +14878,25 @@
       <c r="O210" s="44">
         <v>0</v>
       </c>
-      <c r="P210" s="53"/>
-      <c r="Q210" s="37"/>
-      <c r="R210" s="37"/>
-      <c r="S210" s="37"/>
+      <c r="P210" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q210" s="44">
+        <v>0</v>
+      </c>
+      <c r="R210" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="S210" s="53"/>
       <c r="T210" s="37"/>
       <c r="U210" s="37"/>
       <c r="V210" s="37"/>
       <c r="W210" s="37"/>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X210" s="37"/>
+      <c r="Y210" s="37"/>
+      <c r="Z210" s="37"/>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>503</v>
       </c>
@@ -13002,16 +14942,25 @@
       <c r="O211" s="44">
         <v>1E-3</v>
       </c>
-      <c r="P211" s="53"/>
-      <c r="Q211" s="37"/>
-      <c r="R211" s="37"/>
-      <c r="S211" s="37"/>
+      <c r="P211" s="44">
+        <v>1E-3</v>
+      </c>
+      <c r="Q211" s="44">
+        <v>1E-3</v>
+      </c>
+      <c r="R211" s="44">
+        <v>1E-3</v>
+      </c>
+      <c r="S211" s="53"/>
       <c r="T211" s="37"/>
       <c r="U211" s="37"/>
       <c r="V211" s="37"/>
       <c r="W211" s="37"/>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X211" s="37"/>
+      <c r="Y211" s="37"/>
+      <c r="Z211" s="37"/>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>505</v>
       </c>
@@ -13057,16 +15006,25 @@
       <c r="O212" s="44">
         <v>29</v>
       </c>
-      <c r="P212" s="1"/>
-      <c r="Q212" s="1"/>
-      <c r="R212" s="1"/>
+      <c r="P212" s="44">
+        <v>29</v>
+      </c>
+      <c r="Q212" s="44">
+        <v>29</v>
+      </c>
+      <c r="R212" s="44">
+        <v>29</v>
+      </c>
       <c r="S212" s="1"/>
       <c r="T212" s="1"/>
       <c r="U212" s="1"/>
       <c r="V212" s="1"/>
       <c r="W212" s="1"/>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X212" s="1"/>
+      <c r="Y212" s="1"/>
+      <c r="Z212" s="1"/>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>507</v>
       </c>
@@ -13090,47 +15048,59 @@
         <v>1.2499999999999999E-6</v>
       </c>
       <c r="H213" s="44">
-        <f t="shared" ref="H213:O213" si="13">1250*0.000001/5</f>
+        <f t="shared" ref="H213:R213" si="22">1250*0.000001/5</f>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="I213" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="J213" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="K213" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="L213" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="M213" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="N213" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="O213" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="P213" s="51"/>
-      <c r="Q213" s="51"/>
-      <c r="R213" s="51"/>
+      <c r="P213" s="44">
+        <f t="shared" si="22"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="Q213" s="44">
+        <f t="shared" si="22"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R213" s="44">
+        <f t="shared" si="22"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
       <c r="S213" s="51"/>
       <c r="T213" s="51"/>
       <c r="U213" s="51"/>
       <c r="V213" s="51"/>
       <c r="W213" s="51"/>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X213" s="51"/>
+      <c r="Y213" s="51"/>
+      <c r="Z213" s="51"/>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>510</v>
       </c>
@@ -13176,16 +15146,25 @@
       <c r="O214" s="44">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P214" s="51"/>
-      <c r="Q214" s="51"/>
-      <c r="R214" s="51"/>
+      <c r="P214" s="44">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Q214" s="44">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="R214" s="44">
+        <v>2.0000000000000001E-4</v>
+      </c>
       <c r="S214" s="51"/>
       <c r="T214" s="51"/>
       <c r="U214" s="51"/>
       <c r="V214" s="51"/>
       <c r="W214" s="51"/>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X214" s="51"/>
+      <c r="Y214" s="51"/>
+      <c r="Z214" s="51"/>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>513</v>
       </c>
@@ -13231,16 +15210,25 @@
       <c r="O215" s="44">
         <v>2.4999999999999999E-13</v>
       </c>
-      <c r="P215" s="51"/>
-      <c r="Q215" s="51"/>
-      <c r="R215" s="51"/>
+      <c r="P215" s="44">
+        <v>2.4999999999999999E-13</v>
+      </c>
+      <c r="Q215" s="44">
+        <v>2.4999999999999999E-13</v>
+      </c>
+      <c r="R215" s="44">
+        <v>2.4999999999999999E-13</v>
+      </c>
       <c r="S215" s="51"/>
       <c r="T215" s="51"/>
       <c r="U215" s="51"/>
       <c r="V215" s="51"/>
       <c r="W215" s="51"/>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X215" s="51"/>
+      <c r="Y215" s="51"/>
+      <c r="Z215" s="51"/>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>516</v>
       </c>
@@ -13286,16 +15274,25 @@
       <c r="O216" s="44">
         <v>1.1999999999999999E-7</v>
       </c>
-      <c r="P216" s="51"/>
-      <c r="Q216" s="51"/>
-      <c r="R216" s="51"/>
+      <c r="P216" s="44">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="Q216" s="44">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="R216" s="44">
+        <v>1.1999999999999999E-7</v>
+      </c>
       <c r="S216" s="51"/>
       <c r="T216" s="51"/>
       <c r="U216" s="51"/>
       <c r="V216" s="51"/>
       <c r="W216" s="51"/>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X216" s="51"/>
+      <c r="Y216" s="51"/>
+      <c r="Z216" s="51"/>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>518</v>
       </c>
@@ -13341,16 +15338,25 @@
       <c r="O217" s="44">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="P217" s="51"/>
-      <c r="Q217" s="51"/>
-      <c r="R217" s="51"/>
+      <c r="P217" s="44">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="Q217" s="44">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="R217" s="44">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="S217" s="51"/>
       <c r="T217" s="51"/>
       <c r="U217" s="51"/>
       <c r="V217" s="51"/>
       <c r="W217" s="51"/>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X217" s="51"/>
+      <c r="Y217" s="51"/>
+      <c r="Z217" s="51"/>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>521</v>
       </c>
@@ -13398,16 +15404,25 @@
       <c r="O218" s="44">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="P218" s="51"/>
-      <c r="Q218" s="51"/>
-      <c r="R218" s="51"/>
+      <c r="P218" s="44">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="Q218" s="44">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="R218" s="44">
+        <v>5.0000000000000002E-5</v>
+      </c>
       <c r="S218" s="51"/>
       <c r="T218" s="51"/>
       <c r="U218" s="51"/>
       <c r="V218" s="51"/>
       <c r="W218" s="51"/>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X218" s="51"/>
+      <c r="Y218" s="51"/>
+      <c r="Z218" s="51"/>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>524</v>
       </c>
@@ -13435,43 +15450,55 @@
         <v>9.9999999999999994E-12</v>
       </c>
       <c r="I219" s="44">
-        <f t="shared" ref="I219:O219" si="14">0.00000000000001*10000*8</f>
+        <f t="shared" ref="I219:R219" si="23">0.00000000000001*10000*8</f>
         <v>8.0000000000000003E-10</v>
       </c>
       <c r="J219" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>8.0000000000000003E-10</v>
       </c>
       <c r="K219" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>8.0000000000000003E-10</v>
       </c>
       <c r="L219" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>8.0000000000000003E-10</v>
       </c>
       <c r="M219" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>8.0000000000000003E-10</v>
       </c>
       <c r="N219" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>8.0000000000000003E-10</v>
       </c>
       <c r="O219" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>8.0000000000000003E-10</v>
       </c>
-      <c r="P219" s="51"/>
-      <c r="Q219" s="51"/>
-      <c r="R219" s="51"/>
+      <c r="P219" s="44">
+        <f t="shared" si="23"/>
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="Q219" s="44">
+        <f t="shared" si="23"/>
+        <v>8.0000000000000003E-10</v>
+      </c>
+      <c r="R219" s="44">
+        <f t="shared" si="23"/>
+        <v>8.0000000000000003E-10</v>
+      </c>
       <c r="S219" s="51"/>
       <c r="T219" s="51"/>
       <c r="U219" s="51"/>
       <c r="V219" s="51"/>
       <c r="W219" s="51"/>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X219" s="51"/>
+      <c r="Y219" s="51"/>
+      <c r="Z219" s="51"/>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>527</v>
       </c>
@@ -13499,43 +15526,55 @@
         <v>1E-10</v>
       </c>
       <c r="I220" s="44">
-        <f t="shared" ref="I220:J220" si="15">I219*10</f>
+        <f t="shared" ref="I220:J220" si="24">I219*10</f>
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="J220" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="K220" s="44">
-        <f t="shared" ref="K220:L220" si="16">K219*10</f>
+        <f t="shared" ref="K220:L220" si="25">K219*10</f>
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="L220" s="44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="M220" s="44">
-        <f t="shared" ref="M220:N220" si="17">M219*10</f>
+        <f t="shared" ref="M220:N220" si="26">M219*10</f>
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="N220" s="44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="O220" s="44">
-        <f t="shared" ref="O220" si="18">O219*10</f>
+        <f t="shared" ref="O220:P220" si="27">O219*10</f>
         <v>8.0000000000000005E-9</v>
       </c>
-      <c r="P220" s="51"/>
-      <c r="Q220" s="51"/>
-      <c r="R220" s="51"/>
+      <c r="P220" s="44">
+        <f t="shared" si="27"/>
+        <v>8.0000000000000005E-9</v>
+      </c>
+      <c r="Q220" s="44">
+        <f t="shared" ref="Q220:R220" si="28">Q219*10</f>
+        <v>8.0000000000000005E-9</v>
+      </c>
+      <c r="R220" s="44">
+        <f t="shared" si="28"/>
+        <v>8.0000000000000005E-9</v>
+      </c>
       <c r="S220" s="51"/>
       <c r="T220" s="51"/>
       <c r="U220" s="51"/>
       <c r="V220" s="51"/>
       <c r="W220" s="51"/>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X220" s="51"/>
+      <c r="Y220" s="51"/>
+      <c r="Z220" s="51"/>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>486</v>
       </c>
@@ -13555,51 +15594,63 @@
         <v>487</v>
       </c>
       <c r="G221" s="44">
-        <f>0.84*(0.36^2)</f>
+        <f t="shared" ref="G221:R221" si="29">0.84*(0.36^2)</f>
         <v>0.10886399999999999</v>
       </c>
       <c r="H221" s="44">
-        <f>0.84*(0.36^2)</f>
+        <f t="shared" si="29"/>
         <v>0.10886399999999999</v>
       </c>
       <c r="I221" s="44">
-        <f>0.84*(0.36^2)</f>
+        <f t="shared" si="29"/>
         <v>0.10886399999999999</v>
       </c>
       <c r="J221" s="44">
-        <f>0.84*(0.36^2)</f>
+        <f t="shared" si="29"/>
         <v>0.10886399999999999</v>
       </c>
       <c r="K221" s="44">
-        <f>0.84*(0.36^2)</f>
+        <f t="shared" si="29"/>
         <v>0.10886399999999999</v>
       </c>
       <c r="L221" s="44">
-        <f>0.84*(0.36^2)</f>
+        <f t="shared" si="29"/>
         <v>0.10886399999999999</v>
       </c>
       <c r="M221" s="44">
-        <f>0.84*(0.36^2)</f>
+        <f t="shared" si="29"/>
         <v>0.10886399999999999</v>
       </c>
       <c r="N221" s="44">
-        <f>0.84*(0.36^2)</f>
+        <f t="shared" si="29"/>
         <v>0.10886399999999999</v>
       </c>
       <c r="O221" s="44">
-        <f>0.84*(0.36^2)</f>
+        <f t="shared" si="29"/>
         <v>0.10886399999999999</v>
       </c>
-      <c r="P221" s="51"/>
-      <c r="Q221" s="51"/>
-      <c r="R221" s="51"/>
+      <c r="P221" s="44">
+        <f t="shared" si="29"/>
+        <v>0.10886399999999999</v>
+      </c>
+      <c r="Q221" s="44">
+        <f t="shared" si="29"/>
+        <v>0.10886399999999999</v>
+      </c>
+      <c r="R221" s="44">
+        <f t="shared" si="29"/>
+        <v>0.10886399999999999</v>
+      </c>
       <c r="S221" s="51"/>
       <c r="T221" s="51"/>
       <c r="U221" s="51"/>
       <c r="V221" s="51"/>
       <c r="W221" s="51"/>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X221" s="51"/>
+      <c r="Y221" s="51"/>
+      <c r="Z221" s="51"/>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>538</v>
       </c>
@@ -13645,16 +15696,28 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="N222" s="44">
-        <f>0.0000001*3</f>
-        <v>2.9999999999999999E-7</v>
+        <f>0.0000001*6</f>
+        <v>5.9999999999999997E-7</v>
       </c>
       <c r="O222" s="44">
         <f>0.0000001*6</f>
         <v>5.9999999999999997E-7</v>
       </c>
+      <c r="P222" s="44">
+        <f>0.0000001*6</f>
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="Q222" s="44">
+        <f>0.0000001*10</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="R222" s="44">
+        <f>0.0000001*10*2</f>
+        <v>1.9999999999999999E-6</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:O2">
+  <conditionalFormatting sqref="G2:R2">
     <cfRule type="colorScale" priority="893">
       <colorScale>
         <cfvo type="min"/>
@@ -13676,7 +15739,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:O3">
+  <conditionalFormatting sqref="G3:R3">
     <cfRule type="colorScale" priority="895">
       <colorScale>
         <cfvo type="min"/>
@@ -13698,7 +15761,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:O4">
+  <conditionalFormatting sqref="G4:R4">
     <cfRule type="colorScale" priority="897">
       <colorScale>
         <cfvo type="min"/>
@@ -13720,7 +15783,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:O5">
+  <conditionalFormatting sqref="G5:R5">
     <cfRule type="colorScale" priority="899">
       <colorScale>
         <cfvo type="min"/>
@@ -13742,7 +15805,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:O6">
+  <conditionalFormatting sqref="G6:R6">
     <cfRule type="colorScale" priority="901">
       <colorScale>
         <cfvo type="min"/>
@@ -13764,7 +15827,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:O7">
+  <conditionalFormatting sqref="G7:R7">
     <cfRule type="colorScale" priority="903">
       <colorScale>
         <cfvo type="min"/>
@@ -13786,7 +15849,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:O8">
+  <conditionalFormatting sqref="G8:R8">
     <cfRule type="colorScale" priority="905">
       <colorScale>
         <cfvo type="min"/>
@@ -13808,7 +15871,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:O9">
+  <conditionalFormatting sqref="G9:R9">
     <cfRule type="colorScale" priority="907">
       <colorScale>
         <cfvo type="min"/>
@@ -13830,7 +15893,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:O10">
+  <conditionalFormatting sqref="G10:R10">
     <cfRule type="colorScale" priority="909">
       <colorScale>
         <cfvo type="min"/>
@@ -13852,7 +15915,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:O11">
+  <conditionalFormatting sqref="G11:R11">
     <cfRule type="colorScale" priority="911">
       <colorScale>
         <cfvo type="min"/>
@@ -13874,7 +15937,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:O12">
+  <conditionalFormatting sqref="G12:R12">
     <cfRule type="colorScale" priority="913">
       <colorScale>
         <cfvo type="min"/>
@@ -13896,7 +15959,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:O13">
+  <conditionalFormatting sqref="G13:R13">
     <cfRule type="colorScale" priority="915">
       <colorScale>
         <cfvo type="min"/>
@@ -13918,7 +15981,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:O14">
+  <conditionalFormatting sqref="G14:R14">
     <cfRule type="colorScale" priority="917">
       <colorScale>
         <cfvo type="min"/>
@@ -13940,7 +16003,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:O15">
+  <conditionalFormatting sqref="G15:R15">
     <cfRule type="colorScale" priority="919">
       <colorScale>
         <cfvo type="min"/>
@@ -13962,7 +16025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:O16">
+  <conditionalFormatting sqref="G16:R16">
     <cfRule type="colorScale" priority="921">
       <colorScale>
         <cfvo type="min"/>
@@ -13984,7 +16047,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:O17">
+  <conditionalFormatting sqref="G17:R17">
     <cfRule type="colorScale" priority="923">
       <colorScale>
         <cfvo type="min"/>
@@ -14006,7 +16069,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:O18">
+  <conditionalFormatting sqref="G18:R18">
     <cfRule type="colorScale" priority="925">
       <colorScale>
         <cfvo type="min"/>
@@ -14028,7 +16091,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:O19">
+  <conditionalFormatting sqref="G19:R19">
     <cfRule type="colorScale" priority="927">
       <colorScale>
         <cfvo type="min"/>
@@ -14050,7 +16113,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:O20">
+  <conditionalFormatting sqref="G20:R20">
     <cfRule type="colorScale" priority="929">
       <colorScale>
         <cfvo type="min"/>
@@ -14072,7 +16135,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:O21">
+  <conditionalFormatting sqref="G21:R21">
     <cfRule type="colorScale" priority="931">
       <colorScale>
         <cfvo type="min"/>
@@ -14094,7 +16157,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:O23">
+  <conditionalFormatting sqref="G22:R23">
     <cfRule type="colorScale" priority="933">
       <colorScale>
         <cfvo type="min"/>
@@ -14116,7 +16179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:O24">
+  <conditionalFormatting sqref="G24:R24">
     <cfRule type="colorScale" priority="935">
       <colorScale>
         <cfvo type="min"/>
@@ -14138,7 +16201,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:O25">
+  <conditionalFormatting sqref="G25:R25">
     <cfRule type="colorScale" priority="937">
       <colorScale>
         <cfvo type="min"/>
@@ -14160,7 +16223,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:O26">
+  <conditionalFormatting sqref="G26:R26">
     <cfRule type="colorScale" priority="939">
       <colorScale>
         <cfvo type="min"/>
@@ -14182,7 +16245,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:O27">
+  <conditionalFormatting sqref="G27:R27">
     <cfRule type="colorScale" priority="941">
       <colorScale>
         <cfvo type="min"/>
@@ -14204,7 +16267,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:O28">
+  <conditionalFormatting sqref="G28:R28">
     <cfRule type="colorScale" priority="943">
       <colorScale>
         <cfvo type="min"/>
@@ -14226,7 +16289,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:O29">
+  <conditionalFormatting sqref="G29:R29">
     <cfRule type="colorScale" priority="945">
       <colorScale>
         <cfvo type="min"/>
@@ -14248,7 +16311,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:O30">
+  <conditionalFormatting sqref="G30:R30">
     <cfRule type="colorScale" priority="947">
       <colorScale>
         <cfvo type="min"/>
@@ -14270,7 +16333,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:O31">
+  <conditionalFormatting sqref="G31:R31">
     <cfRule type="colorScale" priority="949">
       <colorScale>
         <cfvo type="min"/>
@@ -14292,7 +16355,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:O32">
+  <conditionalFormatting sqref="G32:R32">
     <cfRule type="colorScale" priority="951">
       <colorScale>
         <cfvo type="min"/>
@@ -14314,7 +16377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:O33">
+  <conditionalFormatting sqref="G33:R33">
     <cfRule type="colorScale" priority="953">
       <colorScale>
         <cfvo type="min"/>
@@ -14336,7 +16399,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:O34">
+  <conditionalFormatting sqref="G34:R34">
     <cfRule type="colorScale" priority="955">
       <colorScale>
         <cfvo type="min"/>
@@ -14358,7 +16421,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35:O35">
+  <conditionalFormatting sqref="G35:R35">
     <cfRule type="colorScale" priority="957">
       <colorScale>
         <cfvo type="min"/>
@@ -14380,7 +16443,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36:O36">
+  <conditionalFormatting sqref="G36:R36">
     <cfRule type="colorScale" priority="959">
       <colorScale>
         <cfvo type="min"/>
@@ -14402,7 +16465,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37:O37">
+  <conditionalFormatting sqref="G37:R37">
     <cfRule type="colorScale" priority="961">
       <colorScale>
         <cfvo type="min"/>
@@ -14424,7 +16487,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38:O38">
+  <conditionalFormatting sqref="G38:R38">
     <cfRule type="colorScale" priority="963">
       <colorScale>
         <cfvo type="min"/>
@@ -14446,7 +16509,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39:O39">
+  <conditionalFormatting sqref="G39:R39">
     <cfRule type="colorScale" priority="965">
       <colorScale>
         <cfvo type="min"/>
@@ -14468,7 +16531,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40:O40">
+  <conditionalFormatting sqref="G40:R40">
     <cfRule type="colorScale" priority="967">
       <colorScale>
         <cfvo type="min"/>
@@ -14490,7 +16553,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:O41">
+  <conditionalFormatting sqref="G41:R41">
     <cfRule type="colorScale" priority="969">
       <colorScale>
         <cfvo type="min"/>
@@ -14512,7 +16575,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:O42">
+  <conditionalFormatting sqref="G42:R42">
     <cfRule type="colorScale" priority="971">
       <colorScale>
         <cfvo type="min"/>
@@ -14534,7 +16597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:O43">
+  <conditionalFormatting sqref="G43:R43">
     <cfRule type="colorScale" priority="973">
       <colorScale>
         <cfvo type="min"/>
@@ -14556,7 +16619,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44:O44">
+  <conditionalFormatting sqref="G44:R44">
     <cfRule type="colorScale" priority="975">
       <colorScale>
         <cfvo type="min"/>
@@ -14578,7 +16641,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:O45">
+  <conditionalFormatting sqref="G45:R45">
     <cfRule type="colorScale" priority="977">
       <colorScale>
         <cfvo type="min"/>
@@ -14600,7 +16663,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46:O46">
+  <conditionalFormatting sqref="G46:R46">
     <cfRule type="colorScale" priority="979">
       <colorScale>
         <cfvo type="min"/>
@@ -14622,7 +16685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47:O47">
+  <conditionalFormatting sqref="G47:R47">
     <cfRule type="colorScale" priority="981">
       <colorScale>
         <cfvo type="min"/>
@@ -14644,7 +16707,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:O48">
+  <conditionalFormatting sqref="G48:R48">
     <cfRule type="colorScale" priority="983">
       <colorScale>
         <cfvo type="min"/>
@@ -14666,7 +16729,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49:O49">
+  <conditionalFormatting sqref="G49:R49">
     <cfRule type="colorScale" priority="985">
       <colorScale>
         <cfvo type="min"/>
@@ -14688,7 +16751,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:O50">
+  <conditionalFormatting sqref="G50:R50">
     <cfRule type="colorScale" priority="987">
       <colorScale>
         <cfvo type="min"/>
@@ -14710,7 +16773,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:O51">
+  <conditionalFormatting sqref="G51:R51">
     <cfRule type="colorScale" priority="989">
       <colorScale>
         <cfvo type="min"/>
@@ -14732,7 +16795,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G52:O52">
+  <conditionalFormatting sqref="G52:R52">
     <cfRule type="colorScale" priority="991">
       <colorScale>
         <cfvo type="min"/>
@@ -14754,7 +16817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G53:O53">
+  <conditionalFormatting sqref="G53:R53">
     <cfRule type="colorScale" priority="993">
       <colorScale>
         <cfvo type="min"/>
@@ -14776,7 +16839,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54:O54">
+  <conditionalFormatting sqref="G54:R54">
     <cfRule type="colorScale" priority="995">
       <colorScale>
         <cfvo type="min"/>
@@ -14798,7 +16861,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G55:O55">
+  <conditionalFormatting sqref="G55:R55">
     <cfRule type="colorScale" priority="997">
       <colorScale>
         <cfvo type="min"/>
@@ -14820,7 +16883,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56:O56">
+  <conditionalFormatting sqref="G56:R56">
     <cfRule type="colorScale" priority="999">
       <colorScale>
         <cfvo type="min"/>
@@ -14842,7 +16905,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:O57">
+  <conditionalFormatting sqref="G57:R57">
     <cfRule type="colorScale" priority="1001">
       <colorScale>
         <cfvo type="min"/>
@@ -14864,7 +16927,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58:O58">
+  <conditionalFormatting sqref="G58:R58">
     <cfRule type="colorScale" priority="1003">
       <colorScale>
         <cfvo type="min"/>
@@ -14886,7 +16949,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:O59">
+  <conditionalFormatting sqref="G59:R59">
     <cfRule type="colorScale" priority="1005">
       <colorScale>
         <cfvo type="min"/>
@@ -14908,7 +16971,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G60:O60">
+  <conditionalFormatting sqref="G60:R60">
     <cfRule type="colorScale" priority="1007">
       <colorScale>
         <cfvo type="min"/>
@@ -14930,7 +16993,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61:O61">
+  <conditionalFormatting sqref="G61:R61">
     <cfRule type="colorScale" priority="1009">
       <colorScale>
         <cfvo type="min"/>
@@ -14952,7 +17015,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62:O62">
+  <conditionalFormatting sqref="G62:R62">
     <cfRule type="colorScale" priority="1011">
       <colorScale>
         <cfvo type="min"/>
@@ -14974,7 +17037,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G63:O63">
+  <conditionalFormatting sqref="G63:R63">
     <cfRule type="colorScale" priority="1013">
       <colorScale>
         <cfvo type="min"/>
@@ -14996,7 +17059,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64:O64">
+  <conditionalFormatting sqref="G64:R64">
     <cfRule type="colorScale" priority="1015">
       <colorScale>
         <cfvo type="min"/>
@@ -15018,7 +17081,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65:O65">
+  <conditionalFormatting sqref="G65:R65">
     <cfRule type="colorScale" priority="1017">
       <colorScale>
         <cfvo type="min"/>
@@ -15040,7 +17103,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66:O66">
+  <conditionalFormatting sqref="G66:R66">
     <cfRule type="colorScale" priority="1019">
       <colorScale>
         <cfvo type="min"/>
@@ -15062,7 +17125,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67:O67">
+  <conditionalFormatting sqref="G67:R67">
     <cfRule type="colorScale" priority="1021">
       <colorScale>
         <cfvo type="min"/>
@@ -15084,7 +17147,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G68:O68">
+  <conditionalFormatting sqref="G68:R68">
     <cfRule type="colorScale" priority="1023">
       <colorScale>
         <cfvo type="min"/>
@@ -15106,7 +17169,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G69:O69">
+  <conditionalFormatting sqref="G69:R69">
     <cfRule type="colorScale" priority="1025">
       <colorScale>
         <cfvo type="min"/>
@@ -15128,7 +17191,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70:O70">
+  <conditionalFormatting sqref="G70:R70">
     <cfRule type="colorScale" priority="1027">
       <colorScale>
         <cfvo type="min"/>
@@ -15150,7 +17213,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71:O71">
+  <conditionalFormatting sqref="G71:R71">
     <cfRule type="colorScale" priority="1029">
       <colorScale>
         <cfvo type="min"/>
@@ -15172,7 +17235,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72:O72">
+  <conditionalFormatting sqref="G72:R72">
     <cfRule type="colorScale" priority="1031">
       <colorScale>
         <cfvo type="min"/>
@@ -15194,7 +17257,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G73:O73">
+  <conditionalFormatting sqref="G73:R73">
     <cfRule type="colorScale" priority="1033">
       <colorScale>
         <cfvo type="min"/>
@@ -15216,7 +17279,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74:O74">
+  <conditionalFormatting sqref="G74:R74">
     <cfRule type="colorScale" priority="1035">
       <colorScale>
         <cfvo type="min"/>
@@ -15238,7 +17301,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75:O75">
+  <conditionalFormatting sqref="G75:R75">
     <cfRule type="colorScale" priority="1037">
       <colorScale>
         <cfvo type="min"/>
@@ -15260,7 +17323,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G76:O76">
+  <conditionalFormatting sqref="G76:R76">
     <cfRule type="colorScale" priority="1039">
       <colorScale>
         <cfvo type="min"/>
@@ -15282,7 +17345,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G77:O77">
+  <conditionalFormatting sqref="G77:R77">
     <cfRule type="colorScale" priority="1041">
       <colorScale>
         <cfvo type="min"/>
@@ -15304,7 +17367,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G78:O78">
+  <conditionalFormatting sqref="G78:R78">
     <cfRule type="colorScale" priority="1043">
       <colorScale>
         <cfvo type="min"/>
@@ -15326,7 +17389,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G79:O79">
+  <conditionalFormatting sqref="G79:R79">
     <cfRule type="colorScale" priority="1045">
       <colorScale>
         <cfvo type="min"/>
@@ -15348,7 +17411,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80:O80">
+  <conditionalFormatting sqref="G80:R80">
     <cfRule type="colorScale" priority="1047">
       <colorScale>
         <cfvo type="min"/>
@@ -15370,7 +17433,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G81:O81">
+  <conditionalFormatting sqref="G81:R81">
     <cfRule type="colorScale" priority="1049">
       <colorScale>
         <cfvo type="min"/>
@@ -15392,7 +17455,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82:O82">
+  <conditionalFormatting sqref="G82:R82">
     <cfRule type="colorScale" priority="1051">
       <colorScale>
         <cfvo type="min"/>
@@ -15414,7 +17477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G83:O83">
+  <conditionalFormatting sqref="G83:R83">
     <cfRule type="colorScale" priority="1053">
       <colorScale>
         <cfvo type="min"/>
@@ -15436,7 +17499,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84:O84">
+  <conditionalFormatting sqref="G84:R84">
     <cfRule type="colorScale" priority="1055">
       <colorScale>
         <cfvo type="min"/>
@@ -15458,7 +17521,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G85:O85">
+  <conditionalFormatting sqref="G85:R85">
     <cfRule type="colorScale" priority="1057">
       <colorScale>
         <cfvo type="min"/>
@@ -15480,7 +17543,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86:O86">
+  <conditionalFormatting sqref="G86:R86">
     <cfRule type="colorScale" priority="1059">
       <colorScale>
         <cfvo type="min"/>
@@ -15502,7 +17565,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87:O87">
+  <conditionalFormatting sqref="G87:R87">
     <cfRule type="colorScale" priority="1061">
       <colorScale>
         <cfvo type="min"/>
@@ -15524,7 +17587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G88:O88">
+  <conditionalFormatting sqref="G88:R88">
     <cfRule type="colorScale" priority="1063">
       <colorScale>
         <cfvo type="min"/>
@@ -15546,7 +17609,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89:O89">
+  <conditionalFormatting sqref="G89:R89">
     <cfRule type="colorScale" priority="1065">
       <colorScale>
         <cfvo type="min"/>
@@ -15568,7 +17631,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G90:O90">
+  <conditionalFormatting sqref="G90:R90">
     <cfRule type="colorScale" priority="1067">
       <colorScale>
         <cfvo type="min"/>
@@ -15590,7 +17653,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G91:O91">
+  <conditionalFormatting sqref="G91:R91">
     <cfRule type="colorScale" priority="1069">
       <colorScale>
         <cfvo type="min"/>
@@ -15612,7 +17675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G92:O92">
+  <conditionalFormatting sqref="G92:R92">
     <cfRule type="colorScale" priority="1071">
       <colorScale>
         <cfvo type="min"/>
@@ -15634,7 +17697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G93:O93">
+  <conditionalFormatting sqref="G93:R93">
     <cfRule type="colorScale" priority="1073">
       <colorScale>
         <cfvo type="min"/>
@@ -15656,7 +17719,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G94:O94">
+  <conditionalFormatting sqref="G94:R94">
     <cfRule type="colorScale" priority="1075">
       <colorScale>
         <cfvo type="min"/>
@@ -15678,7 +17741,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G95:O95">
+  <conditionalFormatting sqref="G95:R95">
     <cfRule type="colorScale" priority="1077">
       <colorScale>
         <cfvo type="min"/>
@@ -15700,7 +17763,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G96:O96">
+  <conditionalFormatting sqref="G96:R96">
     <cfRule type="colorScale" priority="1079">
       <colorScale>
         <cfvo type="min"/>
@@ -15722,7 +17785,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97:O97">
+  <conditionalFormatting sqref="G97:R97">
     <cfRule type="colorScale" priority="1081">
       <colorScale>
         <cfvo type="min"/>
@@ -15744,7 +17807,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98:O98">
+  <conditionalFormatting sqref="G98:R98">
     <cfRule type="colorScale" priority="1083">
       <colorScale>
         <cfvo type="min"/>
@@ -15766,7 +17829,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99:O99">
+  <conditionalFormatting sqref="G99:R99">
     <cfRule type="colorScale" priority="1085">
       <colorScale>
         <cfvo type="min"/>
@@ -15788,7 +17851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100:O100">
+  <conditionalFormatting sqref="G100:R100">
     <cfRule type="colorScale" priority="1087">
       <colorScale>
         <cfvo type="min"/>
@@ -15810,7 +17873,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G101:O101">
+  <conditionalFormatting sqref="G101:R101">
     <cfRule type="colorScale" priority="1089">
       <colorScale>
         <cfvo type="min"/>
@@ -15832,7 +17895,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G102:O102">
+  <conditionalFormatting sqref="G102:R102">
     <cfRule type="colorScale" priority="1091">
       <colorScale>
         <cfvo type="min"/>
@@ -15854,7 +17917,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G103:O103">
+  <conditionalFormatting sqref="G103:R103">
     <cfRule type="colorScale" priority="1093">
       <colorScale>
         <cfvo type="min"/>
@@ -15876,7 +17939,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G104:O104">
+  <conditionalFormatting sqref="G104:R104">
     <cfRule type="colorScale" priority="1095">
       <colorScale>
         <cfvo type="min"/>
@@ -15898,7 +17961,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G105:O105">
+  <conditionalFormatting sqref="G105:R105">
     <cfRule type="colorScale" priority="1097">
       <colorScale>
         <cfvo type="min"/>
@@ -15920,7 +17983,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G106:O106">
+  <conditionalFormatting sqref="G106:R106">
     <cfRule type="colorScale" priority="1099">
       <colorScale>
         <cfvo type="min"/>
@@ -15942,7 +18005,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G107:O107">
+  <conditionalFormatting sqref="G107:R107">
     <cfRule type="colorScale" priority="1101">
       <colorScale>
         <cfvo type="min"/>
@@ -15964,7 +18027,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G108:O108">
+  <conditionalFormatting sqref="G108:R108">
     <cfRule type="colorScale" priority="1103">
       <colorScale>
         <cfvo type="min"/>
@@ -15986,7 +18049,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G109:O109">
+  <conditionalFormatting sqref="G109:R109">
     <cfRule type="colorScale" priority="1105">
       <colorScale>
         <cfvo type="min"/>
@@ -16008,7 +18071,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G110:O110">
+  <conditionalFormatting sqref="G110:R110">
     <cfRule type="colorScale" priority="1107">
       <colorScale>
         <cfvo type="min"/>
@@ -16030,7 +18093,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111:O111">
+  <conditionalFormatting sqref="G111:R111">
     <cfRule type="colorScale" priority="1109">
       <colorScale>
         <cfvo type="min"/>
@@ -16052,7 +18115,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G112:O112">
+  <conditionalFormatting sqref="G112:R112">
     <cfRule type="colorScale" priority="1111">
       <colorScale>
         <cfvo type="min"/>
@@ -16074,7 +18137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G113:O113">
+  <conditionalFormatting sqref="G113:R113">
     <cfRule type="colorScale" priority="1113">
       <colorScale>
         <cfvo type="min"/>
@@ -16096,7 +18159,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G114:O114">
+  <conditionalFormatting sqref="G114:R114">
     <cfRule type="colorScale" priority="1115">
       <colorScale>
         <cfvo type="min"/>
@@ -16118,7 +18181,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G115:O115">
+  <conditionalFormatting sqref="G115:R115">
     <cfRule type="colorScale" priority="1117">
       <colorScale>
         <cfvo type="min"/>
@@ -16140,7 +18203,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G116:O116">
+  <conditionalFormatting sqref="G116:R116">
     <cfRule type="colorScale" priority="1119">
       <colorScale>
         <cfvo type="min"/>
@@ -16162,7 +18225,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G117:O117">
+  <conditionalFormatting sqref="G117:R117">
     <cfRule type="colorScale" priority="1121">
       <colorScale>
         <cfvo type="min"/>
@@ -16184,7 +18247,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G118:O118">
+  <conditionalFormatting sqref="G118:R118">
     <cfRule type="colorScale" priority="1123">
       <colorScale>
         <cfvo type="min"/>
@@ -16206,7 +18269,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G119:O119">
+  <conditionalFormatting sqref="G119:R119">
     <cfRule type="colorScale" priority="1125">
       <colorScale>
         <cfvo type="min"/>
@@ -16228,7 +18291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G120:O120">
+  <conditionalFormatting sqref="G120:R120">
     <cfRule type="colorScale" priority="1127">
       <colorScale>
         <cfvo type="min"/>
@@ -16250,7 +18313,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G121:O121">
+  <conditionalFormatting sqref="G121:R121">
     <cfRule type="colorScale" priority="1129">
       <colorScale>
         <cfvo type="min"/>
@@ -16272,7 +18335,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G122:O122">
+  <conditionalFormatting sqref="G122:R122">
     <cfRule type="colorScale" priority="1131">
       <colorScale>
         <cfvo type="min"/>
@@ -16294,7 +18357,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G123:O123">
+  <conditionalFormatting sqref="G123:R123">
     <cfRule type="colorScale" priority="1133">
       <colorScale>
         <cfvo type="min"/>
@@ -16316,7 +18379,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G124:O124">
+  <conditionalFormatting sqref="G124:R124">
     <cfRule type="colorScale" priority="1135">
       <colorScale>
         <cfvo type="min"/>
@@ -16338,7 +18401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G125:O125">
+  <conditionalFormatting sqref="G125:R125">
     <cfRule type="colorScale" priority="1137">
       <colorScale>
         <cfvo type="min"/>
@@ -16360,7 +18423,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G126:O126">
+  <conditionalFormatting sqref="G126:R126">
     <cfRule type="colorScale" priority="1139">
       <colorScale>
         <cfvo type="min"/>
@@ -16382,7 +18445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G127:O127">
+  <conditionalFormatting sqref="G127:R127">
     <cfRule type="colorScale" priority="1141">
       <colorScale>
         <cfvo type="min"/>
@@ -16404,7 +18467,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G128:O128">
+  <conditionalFormatting sqref="G128:R128">
     <cfRule type="colorScale" priority="1143">
       <colorScale>
         <cfvo type="min"/>
@@ -16426,7 +18489,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G129:O129">
+  <conditionalFormatting sqref="G129:R129">
     <cfRule type="colorScale" priority="1145">
       <colorScale>
         <cfvo type="min"/>
@@ -16448,7 +18511,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G130:O130">
+  <conditionalFormatting sqref="G130:R130">
     <cfRule type="colorScale" priority="1147">
       <colorScale>
         <cfvo type="min"/>
@@ -16470,7 +18533,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G131:O131">
+  <conditionalFormatting sqref="G131:R131">
     <cfRule type="colorScale" priority="1149">
       <colorScale>
         <cfvo type="min"/>
@@ -16492,7 +18555,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G132:O132">
+  <conditionalFormatting sqref="G132:R132">
     <cfRule type="colorScale" priority="1151">
       <colorScale>
         <cfvo type="min"/>
@@ -16514,7 +18577,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G133:O133">
+  <conditionalFormatting sqref="G133:R133">
     <cfRule type="colorScale" priority="1153">
       <colorScale>
         <cfvo type="min"/>
@@ -16536,7 +18599,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G134:O134">
+  <conditionalFormatting sqref="G134:R134">
     <cfRule type="colorScale" priority="1155">
       <colorScale>
         <cfvo type="min"/>
@@ -16558,7 +18621,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G135:O135">
+  <conditionalFormatting sqref="G135:R135">
     <cfRule type="colorScale" priority="1157">
       <colorScale>
         <cfvo type="min"/>
@@ -16580,7 +18643,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G136:O136">
+  <conditionalFormatting sqref="G136:R136">
     <cfRule type="colorScale" priority="1159">
       <colorScale>
         <cfvo type="min"/>
@@ -16602,7 +18665,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G137:O137">
+  <conditionalFormatting sqref="G137:R137">
     <cfRule type="colorScale" priority="1161">
       <colorScale>
         <cfvo type="min"/>
@@ -16624,7 +18687,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G138:O138">
+  <conditionalFormatting sqref="G138:R138">
     <cfRule type="colorScale" priority="1163">
       <colorScale>
         <cfvo type="min"/>
@@ -16646,7 +18709,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G139:O139">
+  <conditionalFormatting sqref="G139:R139">
     <cfRule type="colorScale" priority="1165">
       <colorScale>
         <cfvo type="min"/>
@@ -16668,7 +18731,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G140:O140">
+  <conditionalFormatting sqref="G140:R140">
     <cfRule type="colorScale" priority="1167">
       <colorScale>
         <cfvo type="min"/>
@@ -16690,7 +18753,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G141:O141">
+  <conditionalFormatting sqref="G141:R141">
     <cfRule type="colorScale" priority="1169">
       <colorScale>
         <cfvo type="min"/>
@@ -16712,7 +18775,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G142:O142">
+  <conditionalFormatting sqref="G142:R142">
     <cfRule type="colorScale" priority="1171">
       <colorScale>
         <cfvo type="min"/>
@@ -16734,7 +18797,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G143:O143">
+  <conditionalFormatting sqref="G143:R143">
     <cfRule type="colorScale" priority="1173">
       <colorScale>
         <cfvo type="min"/>
@@ -16756,7 +18819,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G144:O144">
+  <conditionalFormatting sqref="G144:R144">
     <cfRule type="colorScale" priority="1175">
       <colorScale>
         <cfvo type="min"/>
@@ -16778,7 +18841,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G145:O145">
+  <conditionalFormatting sqref="G145:R145">
     <cfRule type="colorScale" priority="1177">
       <colorScale>
         <cfvo type="min"/>
@@ -16800,7 +18863,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G146:O146">
+  <conditionalFormatting sqref="G146:R146">
     <cfRule type="colorScale" priority="1179">
       <colorScale>
         <cfvo type="min"/>
@@ -16822,7 +18885,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G147:O147">
+  <conditionalFormatting sqref="G147:R147">
     <cfRule type="colorScale" priority="1181">
       <colorScale>
         <cfvo type="min"/>
@@ -16844,7 +18907,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G148:O148">
+  <conditionalFormatting sqref="G148:R148">
     <cfRule type="colorScale" priority="1183">
       <colorScale>
         <cfvo type="min"/>
@@ -16866,7 +18929,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G149:O149">
+  <conditionalFormatting sqref="G149:R149">
     <cfRule type="colorScale" priority="1185">
       <colorScale>
         <cfvo type="min"/>
@@ -16888,7 +18951,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G150:O150">
+  <conditionalFormatting sqref="G150:R150">
     <cfRule type="colorScale" priority="1187">
       <colorScale>
         <cfvo type="min"/>
@@ -16910,7 +18973,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G151:O151">
+  <conditionalFormatting sqref="G151:R151">
     <cfRule type="colorScale" priority="1189">
       <colorScale>
         <cfvo type="min"/>
@@ -16932,7 +18995,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G152:O152">
+  <conditionalFormatting sqref="G152:R152">
     <cfRule type="colorScale" priority="1191">
       <colorScale>
         <cfvo type="min"/>
@@ -16954,7 +19017,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G153:O153">
+  <conditionalFormatting sqref="G153:R153">
     <cfRule type="colorScale" priority="1193">
       <colorScale>
         <cfvo type="min"/>
@@ -16976,7 +19039,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G154:O154">
+  <conditionalFormatting sqref="G154:R154">
     <cfRule type="colorScale" priority="1195">
       <colorScale>
         <cfvo type="min"/>
@@ -16998,7 +19061,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G155:O155">
+  <conditionalFormatting sqref="G155:R155">
     <cfRule type="colorScale" priority="1197">
       <colorScale>
         <cfvo type="min"/>
@@ -17020,7 +19083,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G156:O156">
+  <conditionalFormatting sqref="G156:R156">
     <cfRule type="colorScale" priority="1199">
       <colorScale>
         <cfvo type="min"/>
@@ -17042,7 +19105,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G157:O157">
+  <conditionalFormatting sqref="G157:R157">
     <cfRule type="colorScale" priority="1201">
       <colorScale>
         <cfvo type="min"/>
@@ -17064,7 +19127,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G158:O158">
+  <conditionalFormatting sqref="G158:R158">
     <cfRule type="colorScale" priority="1203">
       <colorScale>
         <cfvo type="min"/>
@@ -17086,7 +19149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G159:O159">
+  <conditionalFormatting sqref="G159:R159">
     <cfRule type="colorScale" priority="1205">
       <colorScale>
         <cfvo type="min"/>
@@ -17108,7 +19171,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G160:O160">
+  <conditionalFormatting sqref="G160:R160">
     <cfRule type="colorScale" priority="1207">
       <colorScale>
         <cfvo type="min"/>
@@ -17130,7 +19193,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G161:O161">
+  <conditionalFormatting sqref="G161:R161">
     <cfRule type="colorScale" priority="1209">
       <colorScale>
         <cfvo type="min"/>
@@ -17152,7 +19215,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G162:O162">
+  <conditionalFormatting sqref="G162:R162">
     <cfRule type="colorScale" priority="1211">
       <colorScale>
         <cfvo type="min"/>
@@ -17174,7 +19237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G163:O163">
+  <conditionalFormatting sqref="G163:R163">
     <cfRule type="colorScale" priority="1213">
       <colorScale>
         <cfvo type="min"/>
@@ -17196,7 +19259,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G164:O164">
+  <conditionalFormatting sqref="G164:R164">
     <cfRule type="colorScale" priority="1215">
       <colorScale>
         <cfvo type="min"/>
@@ -17218,7 +19281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G165:O165">
+  <conditionalFormatting sqref="G165:R165">
     <cfRule type="colorScale" priority="1217">
       <colorScale>
         <cfvo type="min"/>
@@ -17240,7 +19303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G166:O166">
+  <conditionalFormatting sqref="G166:R166">
     <cfRule type="colorScale" priority="1219">
       <colorScale>
         <cfvo type="min"/>
@@ -17262,7 +19325,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G167:O167">
+  <conditionalFormatting sqref="G167:R167">
     <cfRule type="colorScale" priority="1221">
       <colorScale>
         <cfvo type="min"/>
@@ -17284,7 +19347,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G168:O168">
+  <conditionalFormatting sqref="G168:R168">
     <cfRule type="colorScale" priority="1223">
       <colorScale>
         <cfvo type="min"/>
@@ -17306,7 +19369,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G169:O169">
+  <conditionalFormatting sqref="G169:R169">
     <cfRule type="colorScale" priority="1225">
       <colorScale>
         <cfvo type="min"/>
@@ -17328,7 +19391,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G170:O170">
+  <conditionalFormatting sqref="G170:R170">
     <cfRule type="colorScale" priority="1227">
       <colorScale>
         <cfvo type="min"/>
@@ -17350,7 +19413,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G171:O171">
+  <conditionalFormatting sqref="G171:R171">
     <cfRule type="colorScale" priority="1229">
       <colorScale>
         <cfvo type="min"/>
@@ -17372,7 +19435,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G172:O172">
+  <conditionalFormatting sqref="G172:R172">
     <cfRule type="colorScale" priority="1231">
       <colorScale>
         <cfvo type="min"/>
@@ -17394,7 +19457,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G173:O173">
+  <conditionalFormatting sqref="G173:R173">
     <cfRule type="colorScale" priority="1233">
       <colorScale>
         <cfvo type="min"/>
@@ -17416,7 +19479,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G174:O174">
+  <conditionalFormatting sqref="G174:R174">
     <cfRule type="colorScale" priority="1235">
       <colorScale>
         <cfvo type="min"/>
@@ -17438,7 +19501,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G175:O175">
+  <conditionalFormatting sqref="G175:R175">
     <cfRule type="colorScale" priority="1237">
       <colorScale>
         <cfvo type="min"/>
@@ -17460,7 +19523,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G176:O176">
+  <conditionalFormatting sqref="G176:R176">
     <cfRule type="colorScale" priority="1239">
       <colorScale>
         <cfvo type="min"/>
@@ -17482,7 +19545,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G177:O177">
+  <conditionalFormatting sqref="G177:R177">
     <cfRule type="colorScale" priority="1241">
       <colorScale>
         <cfvo type="min"/>
@@ -17504,7 +19567,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G178:O178">
+  <conditionalFormatting sqref="G178:R178">
     <cfRule type="colorScale" priority="1243">
       <colorScale>
         <cfvo type="min"/>
@@ -17526,7 +19589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G179:O179">
+  <conditionalFormatting sqref="G179:R179">
     <cfRule type="colorScale" priority="1245">
       <colorScale>
         <cfvo type="min"/>
@@ -17548,7 +19611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G180:O180">
+  <conditionalFormatting sqref="G180:R180">
     <cfRule type="colorScale" priority="1247">
       <colorScale>
         <cfvo type="min"/>
@@ -17570,7 +19633,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G181:O181">
+  <conditionalFormatting sqref="G181:R181">
     <cfRule type="colorScale" priority="1249">
       <colorScale>
         <cfvo type="min"/>
@@ -17592,7 +19655,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G182:O182">
+  <conditionalFormatting sqref="G182:R182">
     <cfRule type="colorScale" priority="1251">
       <colorScale>
         <cfvo type="min"/>
@@ -17614,7 +19677,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G183:O183">
+  <conditionalFormatting sqref="G183:R183">
     <cfRule type="colorScale" priority="1253">
       <colorScale>
         <cfvo type="min"/>
@@ -17636,7 +19699,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G184:O184">
+  <conditionalFormatting sqref="G184:R184">
     <cfRule type="colorScale" priority="1255">
       <colorScale>
         <cfvo type="min"/>
@@ -17658,7 +19721,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G185:O185">
+  <conditionalFormatting sqref="G185:R185">
     <cfRule type="colorScale" priority="1257">
       <colorScale>
         <cfvo type="min"/>
@@ -17680,7 +19743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G186:O186">
+  <conditionalFormatting sqref="G186:R186">
     <cfRule type="colorScale" priority="1259">
       <colorScale>
         <cfvo type="min"/>
@@ -17702,7 +19765,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G187:O187">
+  <conditionalFormatting sqref="G187:R187">
     <cfRule type="colorScale" priority="1261">
       <colorScale>
         <cfvo type="min"/>
@@ -17724,7 +19787,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G188:O188">
+  <conditionalFormatting sqref="G188:R188">
     <cfRule type="colorScale" priority="1263">
       <colorScale>
         <cfvo type="min"/>
@@ -17746,7 +19809,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G189:O189">
+  <conditionalFormatting sqref="G189:R189">
     <cfRule type="colorScale" priority="1265">
       <colorScale>
         <cfvo type="min"/>
@@ -17768,7 +19831,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G190:O190">
+  <conditionalFormatting sqref="G190:R190">
     <cfRule type="colorScale" priority="1267">
       <colorScale>
         <cfvo type="min"/>
@@ -17790,7 +19853,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G191:O191">
+  <conditionalFormatting sqref="G191:R191">
     <cfRule type="colorScale" priority="1269">
       <colorScale>
         <cfvo type="min"/>
@@ -17812,7 +19875,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G192:O192">
+  <conditionalFormatting sqref="G192:R192">
     <cfRule type="colorScale" priority="1271">
       <colorScale>
         <cfvo type="min"/>
@@ -17834,7 +19897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G193:O193">
+  <conditionalFormatting sqref="G193:R193">
     <cfRule type="colorScale" priority="1273">
       <colorScale>
         <cfvo type="min"/>
@@ -17856,7 +19919,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G194:O194">
+  <conditionalFormatting sqref="G194:R194">
     <cfRule type="colorScale" priority="1275">
       <colorScale>
         <cfvo type="min"/>
@@ -17878,7 +19941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G195:O195">
+  <conditionalFormatting sqref="G195:R195">
     <cfRule type="colorScale" priority="1277">
       <colorScale>
         <cfvo type="min"/>
@@ -17900,7 +19963,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G196:O196">
+  <conditionalFormatting sqref="G196:R196">
     <cfRule type="colorScale" priority="1279">
       <colorScale>
         <cfvo type="min"/>
@@ -17922,7 +19985,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G197:O197">
+  <conditionalFormatting sqref="G197:R197">
     <cfRule type="colorScale" priority="1281">
       <colorScale>
         <cfvo type="min"/>
@@ -17944,7 +20007,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G198:O198">
+  <conditionalFormatting sqref="G198:R198">
     <cfRule type="colorScale" priority="1283">
       <colorScale>
         <cfvo type="min"/>
@@ -17966,7 +20029,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G199:O199">
+  <conditionalFormatting sqref="G199:R199">
     <cfRule type="colorScale" priority="1285">
       <colorScale>
         <cfvo type="min"/>
@@ -17988,7 +20051,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G200:O200">
+  <conditionalFormatting sqref="G200:R200">
     <cfRule type="colorScale" priority="1287">
       <colorScale>
         <cfvo type="min"/>
@@ -18010,7 +20073,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G201:O201">
+  <conditionalFormatting sqref="G201:R201">
     <cfRule type="colorScale" priority="1289">
       <colorScale>
         <cfvo type="min"/>
@@ -18032,7 +20095,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G202:O202">
+  <conditionalFormatting sqref="G202:R202">
     <cfRule type="colorScale" priority="1291">
       <colorScale>
         <cfvo type="min"/>
@@ -18054,7 +20117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G203:O203">
+  <conditionalFormatting sqref="G203:R203">
     <cfRule type="colorScale" priority="1293">
       <colorScale>
         <cfvo type="min"/>
@@ -18076,7 +20139,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G204:O204">
+  <conditionalFormatting sqref="G204:R204">
     <cfRule type="colorScale" priority="1295">
       <colorScale>
         <cfvo type="min"/>
@@ -18098,7 +20161,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G205:O205">
+  <conditionalFormatting sqref="G205:R205">
     <cfRule type="colorScale" priority="1297">
       <colorScale>
         <cfvo type="min"/>
@@ -18120,7 +20183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G206:O206">
+  <conditionalFormatting sqref="G206:R206">
     <cfRule type="colorScale" priority="1299">
       <colorScale>
         <cfvo type="min"/>
@@ -18142,7 +20205,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G207:O207">
+  <conditionalFormatting sqref="G207:R207">
     <cfRule type="colorScale" priority="1301">
       <colorScale>
         <cfvo type="min"/>
@@ -18164,7 +20227,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G208:O208">
+  <conditionalFormatting sqref="G208:R208">
     <cfRule type="colorScale" priority="1303">
       <colorScale>
         <cfvo type="min"/>
@@ -18186,7 +20249,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G209:O209">
+  <conditionalFormatting sqref="G209:R209">
     <cfRule type="colorScale" priority="1305">
       <colorScale>
         <cfvo type="min"/>
@@ -18208,7 +20271,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G210:O210">
+  <conditionalFormatting sqref="G210:R210">
     <cfRule type="colorScale" priority="1307">
       <colorScale>
         <cfvo type="min"/>
@@ -18230,7 +20293,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G211:O211">
+  <conditionalFormatting sqref="G211:R211">
     <cfRule type="colorScale" priority="1309">
       <colorScale>
         <cfvo type="min"/>
@@ -18252,7 +20315,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G212:O212">
+  <conditionalFormatting sqref="G212:R212">
     <cfRule type="colorScale" priority="1311">
       <colorScale>
         <cfvo type="min"/>
@@ -18274,7 +20337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G213:O213">
+  <conditionalFormatting sqref="G213:R213">
     <cfRule type="colorScale" priority="1313">
       <colorScale>
         <cfvo type="min"/>
@@ -18296,7 +20359,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G214:O214">
+  <conditionalFormatting sqref="G214:R214">
     <cfRule type="colorScale" priority="1315">
       <colorScale>
         <cfvo type="min"/>
@@ -18318,7 +20381,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G215:O215">
+  <conditionalFormatting sqref="G215:R215">
     <cfRule type="colorScale" priority="1317">
       <colorScale>
         <cfvo type="min"/>
@@ -18340,7 +20403,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G216:O216">
+  <conditionalFormatting sqref="G216:R216">
     <cfRule type="colorScale" priority="1319">
       <colorScale>
         <cfvo type="min"/>
@@ -18362,7 +20425,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G217:O217">
+  <conditionalFormatting sqref="G217:R217">
     <cfRule type="colorScale" priority="1321">
       <colorScale>
         <cfvo type="min"/>
@@ -18384,7 +20447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G218:O218">
+  <conditionalFormatting sqref="G218:R218">
     <cfRule type="colorScale" priority="1323">
       <colorScale>
         <cfvo type="min"/>
@@ -18406,7 +20469,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G219:O219">
+  <conditionalFormatting sqref="G219:R219">
     <cfRule type="colorScale" priority="1325">
       <colorScale>
         <cfvo type="min"/>
@@ -18428,7 +20491,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G220:O220">
+  <conditionalFormatting sqref="G220:R220">
     <cfRule type="colorScale" priority="1327">
       <colorScale>
         <cfvo type="min"/>
@@ -18450,7 +20513,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G221:O221">
+  <conditionalFormatting sqref="G221:R221">
     <cfRule type="colorScale" priority="1329">
       <colorScale>
         <cfvo type="min"/>
@@ -18472,7 +20535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G222:O222">
+  <conditionalFormatting sqref="G222:R222">
     <cfRule type="colorScale" priority="1331">
       <colorScale>
         <cfvo type="min"/>
